--- a/Equipe103.xlsx
+++ b/Equipe103.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39db\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CE39583-9D33-4D1D-BEB1-0C5554416DF4}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FCC3940-EA03-412A-A0C0-F3FEB222AB9C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="238">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -609,37 +609,84 @@
     <t>Erreur dans les tests, voir sur le forum moodle pour plus d'informations</t>
   </si>
   <si>
+    <t>68349ab42e7e35eae49755f88cc49a6c6aed035b</t>
+  </si>
+  <si>
     <t>Outil-Sceau de peinute</t>
   </si>
   <si>
+    <t>"Il est possible de sélectionner l'outil Sceau de Peinture avec la touche B." lorsqu'on utilise la touche B, l'icone est sélectionnée mais impossible d'utiliser la fonctionnalité. -1/9
+Lorsqu'on utilise une grande tolérance (&gt;60), le remplissage ne fonctionne pas pour le mode contigu -.1</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t>Outil- Sélection par rectangle et ellipse</t>
   </si>
   <si>
+    <t>Votre carré de selection n'agit pas de la même facon dépendamment du cadran dans lequel je me trouve.
+La boite englobante n'est pas minimale.
+CTRL+A sans être dans l'outil selection ne peut pas être utilisé ou annulé avec esc</t>
+  </si>
+  <si>
     <t>Outil-Polygone</t>
   </si>
   <si>
+    <t>Le polygone n'est pas inscrit entre le point de départ et la position de la souris.</t>
+  </si>
+  <si>
     <t>Outi-Pipette</t>
   </si>
   <si>
+    <t>Le cercle de prévisualisation ne contient pas les pixels qui entourent le curseur. Voir document de vison sur moodle.</t>
+  </si>
+  <si>
+    <t>Labonté</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
+    <t>Pourquoi ne pas permettre les chiffres dans le nom du fichier? -0.05
+"Il est possible d'exporter une image en format JPG." - l'image a l'extension jpg, mais est une image png. -1/13</t>
+  </si>
+  <si>
     <t>Déplacement d'une sélection</t>
   </si>
   <si>
+    <t>La selection s'annule directement après un déplacement. Impossible de faire plusieurs déplacements.
+Comportement étrange avec l'outil annuler-refaire</t>
+  </si>
+  <si>
     <t>Filtrage par étiquettes</t>
   </si>
   <si>
     <t>Base de données</t>
   </si>
   <si>
+    <t>Les images ne devraient pas être sauvegardés sur la bd mais seulement leur meta-données (nom, tags, lien de l'image sur le serveur).
+ Ainsi, ceci : si la base de données contient des informations sur des dessins non-existants sur le serveur, ces dessins ne sont pas montrés à l'utilisateur, est invalide.</t>
+  </si>
+  <si>
     <t>Carrousel de dessins</t>
   </si>
   <si>
+    <t>L'utilisateur reçoit une alerte confirmant ou non vouloir abandonner ses changements, lorsque le dessin est vide.
+Il n'y a pas de messages d'erreur quand le serveur est indisponible et qu'on tente d'effacer ou de charger un dessin.</t>
+  </si>
+  <si>
     <t>Sauvegarder le dessin sur serveur</t>
   </si>
   <si>
+    <t>Les images ne sont pas enregistrés en format png sur le serveur.
+Conseil UX: Modifier le format d'ajout de tag, il n'est vraiment pas intuitif de devoir mettre 6 caractères pour un tag.</t>
+  </si>
+  <si>
     <t>Annuler-Refaire</t>
+  </si>
+  <si>
+    <t>Les deux options (annuler-refaire) devront être désactivées lorsqu’un outil est en cours d’utilisation.</t>
   </si>
   <si>
     <t>Guide d'utilisation - mise à jour</t>
@@ -3891,13 +3938,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6514,7 +6561,7 @@
       </c>
       <c r="B5" s="259">
         <f>(Fonctionnalités!E38)</f>
-        <v>0</v>
+        <v>0.83679999999999988</v>
       </c>
       <c r="C5" s="260">
         <f>'Assurance Qualité'!D60</f>
@@ -6522,14 +6569,14 @@
       </c>
       <c r="D5" s="260">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
-        <v>0</v>
+        <v>0.41839999999999994</v>
       </c>
       <c r="F5" s="268">
         <v>25</v>
       </c>
       <c r="G5" s="267">
         <f t="shared" ref="G5:G7" si="0">D5*F5</f>
-        <v>0</v>
+        <v>10.459999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6580,7 +6627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
@@ -7954,8 +8001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8354,7 +8401,9 @@
       <c r="A24" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="334"/>
+      <c r="B24" s="334" t="s">
+        <v>175</v>
+      </c>
       <c r="C24" s="335"/>
       <c r="D24" s="335"/>
       <c r="E24" s="335"/>
@@ -8380,187 +8429,291 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="105">
       <c r="A26" s="228" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="241"/>
+        <v>176</v>
+      </c>
+      <c r="B26" s="241">
+        <v>0.79</v>
+      </c>
+      <c r="C26" s="241">
+        <v>1</v>
+      </c>
       <c r="D26" s="220">
         <v>14</v>
       </c>
       <c r="E26" s="220">
         <f>B26*C26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="229"/>
-    </row>
-    <row r="27" spans="1:7">
+        <v>11.06</v>
+      </c>
+      <c r="F26" s="229" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="90">
       <c r="A27" s="228" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
+        <v>179</v>
+      </c>
+      <c r="B27" s="241">
+        <v>0.88</v>
+      </c>
+      <c r="C27" s="241">
+        <v>1</v>
+      </c>
       <c r="D27" s="220">
         <v>15</v>
       </c>
       <c r="E27" s="220">
         <f t="shared" ref="E27:E37" si="1">B27*C27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="229"/>
-    </row>
-    <row r="28" spans="1:7">
+        <v>13.2</v>
+      </c>
+      <c r="F27" s="229" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="228" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
+        <v>181</v>
+      </c>
+      <c r="B28" s="241">
+        <v>0.95</v>
+      </c>
+      <c r="C28" s="241">
+        <v>1</v>
+      </c>
       <c r="D28" s="220">
         <v>5</v>
       </c>
       <c r="E28" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="229"/>
-    </row>
-    <row r="29" spans="1:7">
+        <v>4.75</v>
+      </c>
+      <c r="F28" s="229" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45">
       <c r="A29" s="228" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="241"/>
-      <c r="C29" s="241"/>
+        <v>183</v>
+      </c>
+      <c r="B29" s="241">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="241">
+        <v>1</v>
+      </c>
       <c r="D29" s="220">
         <v>6</v>
       </c>
       <c r="E29" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="229"/>
-    </row>
-    <row r="30" spans="1:7">
+        <v>4.5</v>
+      </c>
+      <c r="F29" s="229" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75">
       <c r="A30" s="228" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
+        <v>186</v>
+      </c>
+      <c r="B30" s="241">
+        <v>0.87</v>
+      </c>
+      <c r="C30" s="241">
+        <v>1</v>
+      </c>
       <c r="D30" s="220">
         <v>6</v>
       </c>
       <c r="E30" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="229"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>5.22</v>
+      </c>
+      <c r="F30" s="229" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60">
       <c r="A31" s="228" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
+        <v>188</v>
+      </c>
+      <c r="B31" s="241">
+        <v>0.85</v>
+      </c>
+      <c r="C31" s="241">
+        <v>1</v>
+      </c>
       <c r="D31" s="220">
         <v>10</v>
       </c>
       <c r="E31" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="229"/>
+        <v>8.5</v>
+      </c>
+      <c r="F31" s="229" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="228" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="241"/>
-      <c r="C32" s="241"/>
+        <v>190</v>
+      </c>
+      <c r="B32" s="241">
+        <v>1</v>
+      </c>
+      <c r="C32" s="241">
+        <v>1</v>
+      </c>
       <c r="D32" s="220">
         <v>6</v>
       </c>
       <c r="E32" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" s="229"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="105">
       <c r="A33" s="228" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
+        <v>191</v>
+      </c>
+      <c r="B33" s="241">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="241">
+        <v>1</v>
+      </c>
       <c r="D33" s="220">
         <v>6</v>
       </c>
       <c r="E33" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="229"/>
-    </row>
-    <row r="34" spans="1:6">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F33" s="229" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="90">
       <c r="A34" s="228" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="241"/>
-      <c r="C34" s="241"/>
+        <v>193</v>
+      </c>
+      <c r="B34" s="241">
+        <v>0.9</v>
+      </c>
+      <c r="C34" s="241">
+        <v>1</v>
+      </c>
       <c r="D34" s="220">
         <v>8</v>
       </c>
       <c r="E34" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="229"/>
-    </row>
-    <row r="35" spans="1:6">
+        <v>7.2</v>
+      </c>
+      <c r="F34" s="229" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="75">
       <c r="A35" s="228" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="241"/>
-      <c r="C35" s="241"/>
+        <v>195</v>
+      </c>
+      <c r="B35" s="241">
+        <v>0.95</v>
+      </c>
+      <c r="C35" s="241">
+        <v>1</v>
+      </c>
       <c r="D35" s="220">
         <v>8</v>
       </c>
       <c r="E35" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="229"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>7.6</v>
+      </c>
+      <c r="F35" s="229" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30">
       <c r="A36" s="228" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="241"/>
-      <c r="C36" s="241"/>
+        <v>197</v>
+      </c>
+      <c r="B36" s="241">
+        <v>0.9</v>
+      </c>
+      <c r="C36" s="241">
+        <v>0.75</v>
+      </c>
       <c r="D36" s="220">
         <v>14</v>
       </c>
       <c r="E36" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="229"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="F36" s="229" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="228" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="241"/>
-      <c r="C37" s="241"/>
+        <v>199</v>
+      </c>
+      <c r="B37" s="241">
+        <v>1</v>
+      </c>
+      <c r="C37" s="241">
+        <v>1</v>
+      </c>
       <c r="D37" s="220">
         <v>2</v>
       </c>
       <c r="E37" s="220">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="229"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="230" t="s">
         <v>171</v>
       </c>
@@ -8572,11 +8725,11 @@
       </c>
       <c r="E38" s="232">
         <f>SUM(E26:E37)/D38 -E39*D39 -E40*D40-E41*D41</f>
-        <v>0</v>
+        <v>0.83679999999999988</v>
       </c>
       <c r="F38" s="233"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="221" t="s">
         <v>172</v>
       </c>
@@ -8585,7 +8738,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="221" t="s">
         <v>173</v>
       </c>
@@ -8593,15 +8746,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="221" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D41" s="223">
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="23.25">
+    <row r="42" spans="1:7" ht="23.25">
       <c r="A42" s="337" t="s">
         <v>2</v>
       </c>
@@ -8611,7 +8764,7 @@
       <c r="E42" s="338"/>
       <c r="F42" s="339"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="234" t="s">
         <v>52</v>
       </c>
@@ -8621,7 +8774,7 @@
       <c r="E43" s="340"/>
       <c r="F43" s="341"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="235" t="s">
         <v>144</v>
       </c>
@@ -8641,9 +8794,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="237" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B45" s="225"/>
       <c r="C45" s="225"/>
@@ -8656,9 +8809,9 @@
       </c>
       <c r="F45" s="236"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="237" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B46" s="225"/>
       <c r="C46" s="225"/>
@@ -8671,9 +8824,9 @@
       </c>
       <c r="F46" s="238"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" s="237" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B47" s="225"/>
       <c r="C47" s="225"/>
@@ -8686,9 +8839,9 @@
       </c>
       <c r="F47" s="236"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="237" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B48" s="225"/>
       <c r="C48" s="225"/>
@@ -8703,7 +8856,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="237" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B49" s="225"/>
       <c r="C49" s="225"/>
@@ -8718,7 +8871,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="237" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B50" s="225"/>
       <c r="C50" s="225"/>
@@ -8733,7 +8886,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="237" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B51" s="225"/>
       <c r="C51" s="225"/>
@@ -8748,7 +8901,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="237" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B52" s="243"/>
       <c r="C52" s="243"/>
@@ -8763,7 +8916,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="247" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B53" s="245"/>
       <c r="C53" s="245"/>
@@ -8778,7 +8931,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="247" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B54" s="245"/>
       <c r="C54" s="245"/>
@@ -8793,7 +8946,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="247" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B55" s="245"/>
       <c r="C55" s="245"/>
@@ -8808,7 +8961,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="247" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B56" s="245"/>
       <c r="C56" s="245"/>
@@ -8823,7 +8976,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="247" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B57" s="245"/>
       <c r="C57" s="245"/>
@@ -8838,7 +8991,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="247" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B58" s="245"/>
       <c r="C58" s="245"/>
@@ -8885,7 +9038,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="227" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D62" s="223">
         <v>0.05</v>
@@ -8973,7 +9126,7 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -8999,7 +9152,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -9012,7 +9165,7 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="65" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -9025,7 +9178,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -9038,7 +9191,7 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="65" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -9051,7 +9204,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -9064,7 +9217,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -9077,7 +9230,7 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="65" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -9090,7 +9243,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -9103,7 +9256,7 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="65" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -9116,7 +9269,7 @@
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="65" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -9129,7 +9282,7 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="65" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -9142,7 +9295,7 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="65" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -9155,7 +9308,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -9168,7 +9321,7 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="65" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -9181,7 +9334,7 @@
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="65" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -9194,7 +9347,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -9207,7 +9360,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="65" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -9220,7 +9373,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -9233,7 +9386,7 @@
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="65" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -9246,7 +9399,7 @@
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="65" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -9259,7 +9412,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -9272,7 +9425,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -9622,7 +9775,7 @@
     <row r="49" spans="1:6" ht="15"/>
     <row r="50" spans="1:6" ht="15">
       <c r="A50" s="92" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -9692,12 +9845,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -9829,7 +9976,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9838,14 +9985,24 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Equipe103.xlsx
+++ b/Equipe103.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23517"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39db\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FCC3940-EA03-412A-A0C0-F3FEB222AB9C}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B3425DE-99C9-48BF-B681-A4148D3858D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="253">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -293,7 +293,7 @@
     <t>Commentaires</t>
   </si>
   <si>
-    <t>Qualité des classes (Labonté)</t>
+    <t>Qualité des classes (Lamontagne)</t>
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée et elle est non triviale.</t>
@@ -313,10 +313,19 @@
 </t>
   </si>
   <si>
+    <t>ClientServerCommunicationService information
+ColorErrorCOmponent ngOnInit inutile</t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres (public/private/protected)</t>
   </si>
   <si>
     <t>Beaucoup de méthodes peuvent être private/protected</t>
+  </si>
+  <si>
+    <t>AbsGuideInformation title et paragraph peuvent être privés
+PaintBucketColorComponent, des fonctions devraient être private
+PolygoneService, des attributs et des fonctions devraient être private</t>
   </si>
   <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière consistante (soit dans le constructeur partout, soit à la définition)</t>
@@ -326,10 +335,14 @@
 </t>
   </si>
   <si>
+    <t>ColorComponent, initialisation en dehors et à l'interieur du constructeur
+DialogExportDrawingComponent même chose</t>
+  </si>
+  <si>
     <t>Total de la catégorie</t>
   </si>
   <si>
-    <t>Qualité des fonctions (Lamontagne)</t>
+    <t>Qualité des fonctions (Labonté)</t>
   </si>
   <si>
     <t>Les noms des fonctions sont précis et décrivent les tâches voulues. 
@@ -338,6 +351,14 @@
   <si>
     <t>-0.25 Line.service.ts OnShiftKeyDown et OnShiftKeyUp commencent par des majuscules
 -0.25 ColorService.getlastColors et ColorService.colortoColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testLabelItsNotinList mauvais format et typo.
+messageDelite, addAllLabal typos.
+moveSelectiontimerLeft mauvais format.
+Plusieurs nom de fonctions de CarrouselPictureComponent ne sont pas précis ou n'expriment pas le comportement de la méthode : selectionLabel, getPicturesAll , ..
+messageDelite, addAllLabal typo.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
@@ -358,25 +379,37 @@
     <t>Tous les paramètres de fonction sont utilisés</t>
   </si>
   <si>
-    <t>-0.25 Rectangle.service.ts mouseUpPos n'est pas utilisé dans plusieurs fonctions</t>
-  </si>
-  <si>
-    <t>Exceptions (Lamontagne)</t>
+    <t xml:space="preserve">-0.25 Rectangle.service.ts mouseUpPos n'est pas utilisé dans plusieurs fonctions
+</t>
+  </si>
+  <si>
+    <t>Exceptions (Labonté)</t>
   </si>
   <si>
     <t>Les exceptions sont claires et spécifiques (Pas d'erreurs génériques). Les messages d'erreur affichés à l'utilisateur sont compréhensible pour l'utilisateur moyen (pas de code d'erreur serveur, mais plutôt un message descriptif du genre "Un problème est survenu lors de la sauvegarde du dessin")</t>
   </si>
   <si>
+    <t>Les exceptions du serveur sont génériques. (Invalid picture)
+Aucune gestion des retours des requêtes http</t>
+  </si>
+  <si>
     <t>Toute fonction doit gérer les valeurs limites de leurs paramètres</t>
   </si>
   <si>
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
   </si>
   <si>
-    <t>Variables (Labonté)</t>
+    <t>getAllLabels devrait retourner promise.resolve ou promise.reject et non faire un try catch.
+UndoRedoService undo ne semble pas nécessiter d'être async.</t>
+  </si>
+  <si>
+    <t>Variables (Lamontagne)</t>
   </si>
   <si>
     <t>Les constantes sont regroupées en groupes logiques. Des variables d'environnement sont utilisées plutôt que des constantes pour les valeurs en lien avec l'environnement de déploiement (par exemple, SERVER_URL).</t>
+  </si>
+  <si>
+    <t>SelectionService constantes devraient être readonly</t>
   </si>
   <si>
     <t>Les constantes doivent être utilisées seulement dans un contexte lié à la logique d'affaire. (mauvais exemple: const DEUX = 2, bon exemple : const WAIT_TIME = 5000)</t>
@@ -397,6 +430,12 @@
 BrushService motionDifference et citcle sont des constantes qui ne sont pas en SCREAMING_SNAKE_CASE</t>
   </si>
   <si>
+    <t>CarrouselPictureComponent, clientServerComSvc devrait finir par service comme les autres services
+Typo labelsSting
+SelectionService, isInsideSelection mouse devrait être suivi de coord ou pos
+databaseService boolTestCancas</t>
+  </si>
+  <si>
     <t>Expression Booléennes (William)</t>
   </si>
   <si>
@@ -430,6 +469,9 @@
   <si>
     <t xml:space="preserve">
 -   quelques commentaires en français et d'autres en anglais. Choisissez une langue et soyez conséquents.</t>
+  </si>
+  <si>
+    <t>Même chose pour les commentaires, soyez cohérents</t>
   </si>
   <si>
     <t>Les commentaires sont pertinents</t>
@@ -441,13 +483,26 @@
 -   eraser.service.ts méthode onMouseDown commentaires inutiles. Aussi, le deuxième commentaire semble être un TODO, vous devriez donc avoir un vrai commentaire "TODO:...", sinon c'est difficile à retracer par la suite.</t>
   </si>
   <si>
+    <t>abs-undo-redo.ts commentaires inutiles -0.25
+dialog-carrousel-picture.component.ts import commenté -0.25
+editor.component.ts code mort commenté -0.25
+sidebar.component debugger statement commenté -0.25</t>
+  </si>
+  <si>
     <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
   </si>
   <si>
+    <t>dialog-create-new-drawing messages d'erreurs sont des string literals répétés. Regrouper en enum ou const readonly -0.25</t>
+  </si>
+  <si>
     <t>Les objets javascript ne sont pas utilisés, des classes ou des interfaces sont utilisés</t>
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>color.component.ts et paint-bucket-color.component.ts méthodes dupliquées (ex onMouseLastColorClick )  -0.5
+PolygonService -&gt; selectPolygon les switchs -0.25</t>
   </si>
   <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
@@ -455,6 +510,10 @@
   </si>
   <si>
     <t>Bien que les tslint disable soient justifiés, svp regrouper plusieurs disable-next-line consécutifs comme dans le color.service.ts en un bloc pour le disable.</t>
+  </si>
+  <si>
+    <t>tslint disables abusifs pour no-magic-numbers. Dans plusieurs cas il est possible d'utiliser des constantes. -0.25
+tslint:disable du isnan inutile et non justifié (Number.isNan() à la place) - 0.25</t>
   </si>
   <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
@@ -466,16 +525,26 @@
 -   canvas-resizer.service.ts méthode onResize: inverser le if et early return pour réduire le nesting.</t>
   </si>
   <si>
+    <t>color-component.ts méthode onMouseLastColorClick inverser le if et early return pour réduire le nesting. -0.25
+dialog-upload.component.ts méthode saveServer inverser le if et early return. -0.25
+brush.service.ts méthode onMouseDown inverser le if et early return. Même chose pour onMouseUp, onMouseMove, onMouseOut - 0.25
+Même chose que le point précédent dans eraser.service, selection-ellipse.service, selection-rectangle.service, etc. -0.25</t>
+  </si>
+  <si>
     <t>Le logiciel a une performance acceptable.</t>
   </si>
   <si>
-    <t>Gestion de Versions (Lamontagne)</t>
+    <t>Gestion de Versions (Labonté)</t>
   </si>
   <si>
     <t>La branche de production possède le bon TAG pour les remises de sprint (sprint1, sprint2, sprint3)</t>
   </si>
   <si>
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains commit avec des messages non descriptifs comme finish ou test
+</t>
   </si>
   <si>
     <t>Le repo git ne contient pas de branches mortes (stale branches).</t>
@@ -3032,7 +3101,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3417,9 +3486,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3795,9 +3861,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3813,33 +3885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3864,9 +3909,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3883,6 +3940,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3938,13 +4010,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4799,18 +4871,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15"/>
     <row r="2" spans="1:11" ht="15">
-      <c r="C2" s="305" t="s">
+      <c r="C2" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306" t="s">
+      <c r="D2" s="306"/>
+      <c r="E2" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="306"/>
-      <c r="G2" s="307" t="s">
+      <c r="F2" s="307"/>
+      <c r="G2" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="307"/>
+      <c r="H2" s="308"/>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="2"/>
@@ -5091,7 +5163,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="308" t="s">
+      <c r="G2" s="309" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5104,7 +5176,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="308"/>
+      <c r="G3" s="309"/>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="58" t="s">
@@ -5426,10 +5498,10 @@
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="H27" s="309" t="s">
+      <c r="H27" s="310" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="309"/>
+      <c r="I27" s="310"/>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="52" t="s">
@@ -5784,7 +5856,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="308" t="s">
+      <c r="G2" s="309" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5797,7 +5869,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="308"/>
+      <c r="G3" s="309"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -6171,10 +6243,10 @@
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
       <c r="F31" s="85"/>
-      <c r="H31" s="309" t="s">
+      <c r="H31" s="310" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="309"/>
+      <c r="I31" s="310"/>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="52" t="s">
@@ -6511,17 +6583,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="206"/>
-      <c r="B3" s="253" t="s">
+      <c r="A3" s="205"/>
+      <c r="B3" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="252" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="253" t="s">
+      <c r="D3" s="252" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="254" t="s">
+      <c r="E3" s="253" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6532,88 +6604,88 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="256">
+      <c r="A4" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="255">
         <f>(Fonctionnalités!E20)</f>
         <v>0.80560576923076921</v>
       </c>
-      <c r="C4" s="257">
+      <c r="C4" s="256">
         <f>'Assurance Qualité'!B60</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="D4" s="257">
+      <c r="D4" s="256">
         <f>AVERAGE(B4:C4) - 0.1*E4</f>
         <v>0.79405288461538459</v>
       </c>
-      <c r="F4" s="268">
+      <c r="F4" s="267">
         <v>15</v>
       </c>
-      <c r="G4" s="267">
+      <c r="G4" s="266">
         <f>D4*F4</f>
         <v>11.910793269230769</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="258" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="259">
+      <c r="A5" s="257" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="258">
         <f>(Fonctionnalités!E38)</f>
         <v>0.83679999999999988</v>
       </c>
-      <c r="C5" s="260">
+      <c r="C5" s="259">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="260">
+        <v>0.69</v>
+      </c>
+      <c r="D5" s="259">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
-        <v>0.41839999999999994</v>
-      </c>
-      <c r="F5" s="268">
+        <v>0.76339999999999986</v>
+      </c>
+      <c r="F5" s="267">
         <v>25</v>
       </c>
-      <c r="G5" s="267">
+      <c r="G5" s="266">
         <f t="shared" ref="G5:G7" si="0">D5*F5</f>
-        <v>10.459999999999999</v>
+        <v>19.084999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="262">
+      <c r="B6" s="261">
         <f>(Fonctionnalités!E59)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="263">
+      <c r="C6" s="262">
         <f>'Assurance Qualité'!F60</f>
         <v>0</v>
       </c>
-      <c r="D6" s="263">
+      <c r="D6" s="262">
         <f>AVERAGE(B6:C6) - 0.1*E6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="268">
+      <c r="F6" s="267">
         <v>30</v>
       </c>
-      <c r="G6" s="267">
+      <c r="G6" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="263" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="269"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="268"/>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="267">
+      <c r="G7" s="266">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6627,49 +6699,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="64.5703125" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="4" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="311" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="314" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="145"/>
@@ -6683,31 +6757,31 @@
       <c r="I4" s="146"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="324" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="330" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="331" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="331"/>
-      <c r="F5" s="332" t="s">
+      <c r="B5" s="326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="326"/>
+      <c r="D5" s="327" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="327"/>
+      <c r="F5" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="333"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="325" t="s">
+      <c r="G5" s="329"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="317" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
+      <c r="K5" s="318"/>
+      <c r="L5" s="318"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="329"/>
+      <c r="A6" s="325"/>
       <c r="B6" s="147" t="s">
         <v>48</v>
       </c>
@@ -6723,11 +6797,11 @@
       <c r="F6" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="193" t="s">
+      <c r="G6" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="152" t="s">
         <v>0</v>
       </c>
@@ -6740,20 +6814,20 @@
       <c r="M6" s="152"/>
     </row>
     <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="319" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="312"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
     </row>
     <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="193" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="153">
@@ -6762,7 +6836,9 @@
       <c r="C8" s="154">
         <v>3</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="155">
+        <v>1</v>
+      </c>
       <c r="E8" s="154">
         <v>3</v>
       </c>
@@ -6770,11 +6846,11 @@
       <c r="G8" s="154">
         <v>3</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="193" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="157">
@@ -6783,7 +6859,9 @@
       <c r="C9" s="161">
         <v>2</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="159">
+        <v>1</v>
+      </c>
       <c r="E9" s="161">
         <v>2</v>
       </c>
@@ -6791,11 +6869,11 @@
       <c r="G9" s="161">
         <v>2</v>
       </c>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-    </row>
-    <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="270" t="s">
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+    </row>
+    <row r="10" spans="1:13" ht="105">
+      <c r="A10" s="269" t="s">
         <v>86</v>
       </c>
       <c r="B10" s="157">
@@ -6804,7 +6882,9 @@
       <c r="C10" s="161">
         <v>3</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="159">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="161">
         <v>3</v>
       </c>
@@ -6812,15 +6892,18 @@
       <c r="G10" s="161">
         <v>3</v>
       </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
       <c r="J10" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="195" t="s">
+      <c r="K10" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="90">
+      <c r="A11" s="194" t="s">
+        <v>89</v>
       </c>
       <c r="B11" s="157">
         <v>0.5</v>
@@ -6828,7 +6911,9 @@
       <c r="C11" s="161">
         <v>2</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="159">
+        <v>0.25</v>
+      </c>
       <c r="E11" s="161">
         <v>2</v>
       </c>
@@ -6836,15 +6921,18 @@
       <c r="G11" s="161">
         <v>2</v>
       </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
       <c r="J11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="196" t="s">
         <v>90</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="105">
+      <c r="A12" s="195" t="s">
+        <v>92</v>
       </c>
       <c r="B12" s="157">
         <v>0.75</v>
@@ -6852,7 +6940,9 @@
       <c r="C12" s="161">
         <v>4</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="159">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="161">
         <v>4</v>
       </c>
@@ -6860,17 +6950,20 @@
       <c r="G12" s="161">
         <v>4</v>
       </c>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="178">
+      <c r="A13" s="197" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="177">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
         <v>9</v>
       </c>
@@ -6878,9 +6971,9 @@
         <f>SUM(C8:C12)</f>
         <v>14</v>
       </c>
-      <c r="D13" s="179">
+      <c r="D13" s="178">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13" s="164">
         <f>SUM(E8:E12)</f>
@@ -6890,155 +6983,170 @@
         <f>SUMPRODUCT(F8:F12,G8:G12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="197">
+      <c r="G13" s="196">
         <f>SUM(G8:G12)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="310" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="327"/>
-      <c r="C14" s="327"/>
-      <c r="D14" s="312"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="312"/>
-      <c r="G14" s="313"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-    </row>
-    <row r="15" spans="1:13" ht="45">
-      <c r="A15" s="270" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="294">
+      <c r="A14" s="319" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="320"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="321"/>
+      <c r="E14" s="321"/>
+      <c r="F14" s="321"/>
+      <c r="G14" s="322"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+    </row>
+    <row r="15" spans="1:13" ht="165">
+      <c r="A15" s="269" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="293">
         <v>0.5</v>
       </c>
-      <c r="C15" s="295">
+      <c r="C15" s="294">
         <v>2</v>
       </c>
-      <c r="D15" s="298"/>
-      <c r="E15" s="295">
+      <c r="D15" s="297">
+        <v>0</v>
+      </c>
+      <c r="E15" s="294">
         <v>2</v>
       </c>
       <c r="F15" s="166"/>
-      <c r="G15" s="295">
+      <c r="G15" s="294">
         <v>2</v>
       </c>
-      <c r="H15" s="189"/>
-      <c r="I15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="187"/>
       <c r="J15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="135">
+      <c r="A16" s="269" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="295">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="284">
+        <v>3</v>
+      </c>
+      <c r="D16" s="270">
+        <v>1</v>
+      </c>
+      <c r="E16" s="284">
+        <v>3</v>
+      </c>
+      <c r="F16" s="271"/>
+      <c r="G16" s="284">
+        <v>3</v>
+      </c>
+      <c r="H16" s="188"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="303"/>
+    </row>
+    <row r="17" spans="1:11" ht="45">
+      <c r="A17" s="277" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="283">
+        <v>1</v>
+      </c>
+      <c r="C17" s="284">
+        <v>3</v>
+      </c>
+      <c r="D17" s="273">
+        <v>1</v>
+      </c>
+      <c r="E17" s="284">
+        <v>3</v>
+      </c>
+      <c r="F17" s="169"/>
+      <c r="G17" s="284">
+        <v>3</v>
+      </c>
+      <c r="H17" s="188"/>
+      <c r="I17" s="187"/>
+    </row>
+    <row r="18" spans="1:11" ht="30">
+      <c r="A18" s="277" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="283">
+        <v>1</v>
+      </c>
+      <c r="C18" s="284">
+        <v>3</v>
+      </c>
+      <c r="D18" s="273">
+        <v>1</v>
+      </c>
+      <c r="E18" s="284">
+        <v>3</v>
+      </c>
+      <c r="F18" s="169"/>
+      <c r="G18" s="284">
+        <v>3</v>
+      </c>
+      <c r="H18" s="188"/>
+      <c r="I18" s="187"/>
+    </row>
+    <row r="19" spans="1:11" ht="75">
+      <c r="A19" s="278" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="296">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="284">
+        <v>2</v>
+      </c>
+      <c r="D19" s="298">
+        <v>1</v>
+      </c>
+      <c r="E19" s="284">
+        <v>2</v>
+      </c>
+      <c r="F19" s="169"/>
+      <c r="G19" s="284">
+        <v>2</v>
+      </c>
+      <c r="H19" s="188"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="288" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="60">
-      <c r="A16" s="270" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="296">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="285">
-        <v>3</v>
-      </c>
-      <c r="D16" s="271"/>
-      <c r="E16" s="285">
-        <v>3</v>
-      </c>
-      <c r="F16" s="272"/>
-      <c r="G16" s="285">
-        <v>3</v>
-      </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45">
-      <c r="A17" s="278" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="284">
-        <v>1</v>
-      </c>
-      <c r="C17" s="285">
-        <v>3</v>
-      </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="285">
-        <v>3</v>
-      </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="285">
-        <v>3</v>
-      </c>
-      <c r="H17" s="189"/>
-      <c r="I17" s="188"/>
-    </row>
-    <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="278" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="284">
-        <v>1</v>
-      </c>
-      <c r="C18" s="285">
-        <v>3</v>
-      </c>
-      <c r="D18" s="274"/>
-      <c r="E18" s="285">
-        <v>3</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="285">
-        <v>3</v>
-      </c>
-      <c r="H18" s="189"/>
-      <c r="I18" s="188"/>
-    </row>
-    <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="279" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="297">
-        <v>0.75</v>
-      </c>
-      <c r="C19" s="285">
-        <v>2</v>
-      </c>
-      <c r="D19" s="299"/>
-      <c r="E19" s="285">
-        <v>2</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="285">
-        <v>2</v>
-      </c>
-      <c r="H19" s="189"/>
-      <c r="I19" s="188"/>
-      <c r="J19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="289" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="292">
+      <c r="B20" s="291">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
         <v>9.25</v>
       </c>
-      <c r="C20" s="288">
+      <c r="C20" s="287">
         <f>SUM(C15:C19)</f>
         <v>13</v>
       </c>
-      <c r="D20" s="293">
+      <c r="D20" s="292">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E20" s="162">
         <f>SUM(E15:E19)</f>
@@ -7048,29 +7156,29 @@
         <f>SUMPRODUCT(F15:F19,G15:G19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="197">
+      <c r="G20" s="196">
         <f>SUM(G15:G19)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="189"/>
-      <c r="I20" s="188"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="310" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="318"/>
-      <c r="C21" s="318"/>
-      <c r="D21" s="312"/>
-      <c r="E21" s="312"/>
-      <c r="F21" s="312"/>
-      <c r="G21" s="313"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-    </row>
-    <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="195" t="s">
-        <v>103</v>
+      <c r="H20" s="188"/>
+      <c r="I20" s="187"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="319" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="323"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="321"/>
+      <c r="E21" s="321"/>
+      <c r="F21" s="321"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+    </row>
+    <row r="22" spans="1:11" ht="75">
+      <c r="A22" s="194" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="157">
         <v>1</v>
@@ -7078,7 +7186,9 @@
       <c r="C22" s="158">
         <v>2</v>
       </c>
-      <c r="D22" s="159"/>
+      <c r="D22" s="159">
+        <v>0</v>
+      </c>
       <c r="E22" s="158">
         <v>2</v>
       </c>
@@ -7086,12 +7196,15 @@
       <c r="G22" s="158">
         <v>2</v>
       </c>
-      <c r="H22" s="189"/>
-      <c r="I22" s="188"/>
-    </row>
-    <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="196" t="s">
-        <v>104</v>
+      <c r="H22" s="188"/>
+      <c r="I22" s="187"/>
+      <c r="K22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="195" t="s">
+        <v>109</v>
       </c>
       <c r="B23" s="157">
         <v>1</v>
@@ -7099,7 +7212,9 @@
       <c r="C23" s="161">
         <v>1</v>
       </c>
-      <c r="D23" s="159"/>
+      <c r="D23" s="159">
+        <v>1</v>
+      </c>
       <c r="E23" s="161">
         <v>1</v>
       </c>
@@ -7107,12 +7222,12 @@
       <c r="G23" s="161">
         <v>1</v>
       </c>
-      <c r="H23" s="189"/>
-      <c r="I23" s="188"/>
-    </row>
-    <row r="24" spans="1:10" ht="30">
-      <c r="A24" s="196" t="s">
-        <v>105</v>
+      <c r="H23" s="188"/>
+      <c r="I23" s="187"/>
+    </row>
+    <row r="24" spans="1:11" ht="75">
+      <c r="A24" s="195" t="s">
+        <v>110</v>
       </c>
       <c r="B24" s="157">
         <v>1</v>
@@ -7120,7 +7235,9 @@
       <c r="C24" s="161">
         <v>1</v>
       </c>
-      <c r="D24" s="159"/>
+      <c r="D24" s="159">
+        <v>0.25</v>
+      </c>
       <c r="E24" s="161">
         <v>1</v>
       </c>
@@ -7128,14 +7245,17 @@
       <c r="G24" s="161">
         <v>1</v>
       </c>
-      <c r="H24" s="189"/>
-      <c r="I24" s="188"/>
-    </row>
-    <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="178">
+      <c r="H24" s="188"/>
+      <c r="I24" s="187"/>
+      <c r="K24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="A25" s="197" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="177">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
         <v>4</v>
       </c>
@@ -7143,9 +7263,9 @@
         <f>SUM(C22:C24)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="179">
+      <c r="D25" s="178">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E25" s="164">
         <f>SUM(E22:E24)</f>
@@ -7155,131 +7275,145 @@
         <f>SUMPRODUCT(F22:F24,G22:G24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="197">
+      <c r="G25" s="196">
         <f>SUM(G22:G24)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="189"/>
-      <c r="I25" s="188"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="310" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="327"/>
-      <c r="C26" s="327"/>
-      <c r="D26" s="312"/>
-      <c r="E26" s="312"/>
-      <c r="F26" s="312"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-    </row>
-    <row r="27" spans="1:10" ht="60">
-      <c r="A27" s="279" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="280">
-        <v>1</v>
-      </c>
-      <c r="C27" s="281">
+      <c r="H25" s="188"/>
+      <c r="I25" s="187"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="319" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="320"/>
+      <c r="C26" s="320"/>
+      <c r="D26" s="321"/>
+      <c r="E26" s="321"/>
+      <c r="F26" s="321"/>
+      <c r="G26" s="322"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+    </row>
+    <row r="27" spans="1:11" ht="60">
+      <c r="A27" s="278" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="279">
+        <v>1</v>
+      </c>
+      <c r="C27" s="280">
         <v>2</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="281">
+      <c r="D27" s="273">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="280">
         <v>2</v>
       </c>
       <c r="F27" s="171"/>
-      <c r="G27" s="281">
+      <c r="G27" s="280">
         <v>2</v>
       </c>
-      <c r="H27" s="189"/>
-      <c r="I27" s="188"/>
-    </row>
-    <row r="28" spans="1:10" ht="45">
-      <c r="A28" s="279" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="284">
+      <c r="H27" s="188"/>
+      <c r="I27" s="187"/>
+      <c r="K27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45">
+      <c r="A28" s="278" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="283">
         <v>0.75</v>
       </c>
-      <c r="C28" s="286">
+      <c r="C28" s="285">
         <v>2</v>
       </c>
-      <c r="D28" s="274"/>
-      <c r="E28" s="286">
+      <c r="D28" s="273">
+        <v>1</v>
+      </c>
+      <c r="E28" s="285">
         <v>2</v>
       </c>
       <c r="F28" s="171"/>
-      <c r="G28" s="286">
+      <c r="G28" s="285">
         <v>2</v>
       </c>
-      <c r="H28" s="189"/>
-      <c r="I28" s="188"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="187"/>
       <c r="J28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="30">
-      <c r="A29" s="279" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="284">
-        <v>1</v>
-      </c>
-      <c r="C29" s="286">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30">
+      <c r="A29" s="278" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="283">
+        <v>1</v>
+      </c>
+      <c r="C29" s="285">
         <v>2</v>
       </c>
-      <c r="D29" s="274"/>
-      <c r="E29" s="286">
+      <c r="D29" s="273">
+        <v>1</v>
+      </c>
+      <c r="E29" s="285">
         <v>2</v>
       </c>
       <c r="F29" s="171"/>
-      <c r="G29" s="286">
+      <c r="G29" s="285">
         <v>2</v>
       </c>
-      <c r="H29" s="189"/>
-      <c r="I29" s="188"/>
-    </row>
-    <row r="30" spans="1:10" ht="105">
-      <c r="A30" s="279" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="284">
-        <v>0</v>
-      </c>
-      <c r="C30" s="286">
+      <c r="H29" s="188"/>
+      <c r="I29" s="187"/>
+    </row>
+    <row r="30" spans="1:11" ht="255">
+      <c r="A30" s="278" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="283">
+        <v>0</v>
+      </c>
+      <c r="C30" s="285">
         <v>3</v>
       </c>
-      <c r="D30" s="274"/>
-      <c r="E30" s="286">
+      <c r="D30" s="273">
+        <v>0</v>
+      </c>
+      <c r="E30" s="285">
         <v>3</v>
       </c>
       <c r="F30" s="171"/>
-      <c r="G30" s="286">
+      <c r="G30" s="285">
         <v>3</v>
       </c>
-      <c r="H30" s="189"/>
-      <c r="I30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="187"/>
       <c r="J30" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="289" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="292">
+        <v>119</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="288" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="291">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
         <v>5.5</v>
       </c>
-      <c r="C31" s="288">
+      <c r="C31" s="287">
         <f>SUM(C27:C30)</f>
         <v>9</v>
       </c>
-      <c r="D31" s="293">
+      <c r="D31" s="292">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E31" s="164">
         <f>SUM(E27:E30)</f>
@@ -7289,125 +7423,133 @@
         <f>SUMPRODUCT(F27:F30,G27:G30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="197">
+      <c r="G31" s="196">
         <f>SUM(G27:G30)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="189"/>
-      <c r="I31" s="188"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="310" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="311"/>
-      <c r="C32" s="311"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-    </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="270" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="280">
-        <v>1</v>
-      </c>
-      <c r="C33" s="281">
-        <v>1</v>
-      </c>
-      <c r="D33" s="290"/>
-      <c r="E33" s="281">
+      <c r="H31" s="188"/>
+      <c r="I31" s="187"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="319" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="330"/>
+      <c r="C32" s="330"/>
+      <c r="D32" s="321"/>
+      <c r="E32" s="321"/>
+      <c r="F32" s="321"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+    </row>
+    <row r="33" spans="1:11" ht="15">
+      <c r="A33" s="269" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="279">
+        <v>1</v>
+      </c>
+      <c r="C33" s="280">
+        <v>1</v>
+      </c>
+      <c r="D33" s="289">
+        <v>1</v>
+      </c>
+      <c r="E33" s="280">
         <v>1</v>
       </c>
       <c r="F33" s="174"/>
-      <c r="G33" s="281">
-        <v>1</v>
-      </c>
-      <c r="H33" s="189"/>
-      <c r="I33" s="188"/>
-    </row>
-    <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="270" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="282">
-        <v>1</v>
-      </c>
-      <c r="C34" s="283">
-        <v>1</v>
-      </c>
-      <c r="D34" s="276"/>
-      <c r="E34" s="283">
-        <v>1</v>
-      </c>
-      <c r="F34" s="277"/>
-      <c r="G34" s="283">
-        <v>1</v>
-      </c>
-      <c r="H34" s="189"/>
-      <c r="I34" s="188"/>
-    </row>
-    <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="278" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="284">
-        <v>1</v>
-      </c>
-      <c r="C35" s="285">
+      <c r="G33" s="280">
+        <v>1</v>
+      </c>
+      <c r="H33" s="188"/>
+      <c r="I33" s="187"/>
+    </row>
+    <row r="34" spans="1:11" ht="15">
+      <c r="A34" s="269" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="281">
+        <v>1</v>
+      </c>
+      <c r="C34" s="282">
+        <v>1</v>
+      </c>
+      <c r="D34" s="275">
+        <v>1</v>
+      </c>
+      <c r="E34" s="282">
+        <v>1</v>
+      </c>
+      <c r="F34" s="276"/>
+      <c r="G34" s="282">
+        <v>1</v>
+      </c>
+      <c r="H34" s="188"/>
+      <c r="I34" s="187"/>
+    </row>
+    <row r="35" spans="1:11" ht="15">
+      <c r="A35" s="277" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="283">
+        <v>1</v>
+      </c>
+      <c r="C35" s="284">
         <v>3</v>
       </c>
-      <c r="D35" s="274"/>
-      <c r="E35" s="285">
+      <c r="D35" s="273">
+        <v>1</v>
+      </c>
+      <c r="E35" s="284">
         <v>3</v>
       </c>
       <c r="F35" s="171"/>
-      <c r="G35" s="285">
+      <c r="G35" s="284">
         <v>3</v>
       </c>
-      <c r="H35" s="189"/>
-      <c r="I35" s="188"/>
-    </row>
-    <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="279" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="284">
-        <v>1</v>
-      </c>
-      <c r="C36" s="286">
+      <c r="H35" s="188"/>
+      <c r="I35" s="187"/>
+    </row>
+    <row r="36" spans="1:11" ht="30">
+      <c r="A36" s="278" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="283">
+        <v>1</v>
+      </c>
+      <c r="C36" s="285">
         <v>3</v>
       </c>
-      <c r="D36" s="274"/>
-      <c r="E36" s="286">
+      <c r="D36" s="273">
+        <v>1</v>
+      </c>
+      <c r="E36" s="285">
         <v>3</v>
       </c>
       <c r="F36" s="171"/>
-      <c r="G36" s="286">
+      <c r="G36" s="285">
         <v>3</v>
       </c>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-    </row>
-    <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="289" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="287">
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+    </row>
+    <row r="37" spans="1:11" ht="15">
+      <c r="A37" s="288" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="286">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="C37" s="288">
+      <c r="C37" s="287">
         <f>SUM(C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="D37" s="291">
+      <c r="D37" s="290">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E37" s="164">
         <f>SUM(E33:E36)</f>
@@ -7417,283 +7559,323 @@
         <f>SUMPRODUCT(F33:F36,G33:G36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="197">
+      <c r="G37" s="196">
         <f>SUM(G33:G36)</f>
         <v>8</v>
       </c>
-      <c r="H37" s="189"/>
-      <c r="I37" s="188"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="310" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="311"/>
-      <c r="C38" s="311"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-    </row>
-    <row r="39" spans="1:10" ht="45">
-      <c r="A39" s="278" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="280">
-        <v>1</v>
-      </c>
-      <c r="C39" s="295">
-        <v>1</v>
-      </c>
-      <c r="D39" s="274"/>
-      <c r="E39" s="295">
+      <c r="H37" s="188"/>
+      <c r="I37" s="187"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A38" s="319" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="330"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="322"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+    </row>
+    <row r="39" spans="1:11" ht="45">
+      <c r="A39" s="277" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="279">
+        <v>1</v>
+      </c>
+      <c r="C39" s="294">
+        <v>1</v>
+      </c>
+      <c r="D39" s="273">
+        <v>1</v>
+      </c>
+      <c r="E39" s="294">
         <v>1</v>
       </c>
       <c r="F39" s="171"/>
-      <c r="G39" s="295">
-        <v>1</v>
-      </c>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-    </row>
-    <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="278" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="284">
-        <v>1</v>
-      </c>
-      <c r="C40" s="285">
+      <c r="G39" s="294">
+        <v>1</v>
+      </c>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+    </row>
+    <row r="40" spans="1:11" ht="15">
+      <c r="A40" s="277" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="283">
+        <v>1</v>
+      </c>
+      <c r="C40" s="284">
         <v>4</v>
       </c>
-      <c r="D40" s="274"/>
-      <c r="E40" s="285">
+      <c r="D40" s="273">
+        <v>1</v>
+      </c>
+      <c r="E40" s="284">
         <v>4</v>
       </c>
       <c r="F40" s="171"/>
-      <c r="G40" s="285">
+      <c r="G40" s="284">
         <v>4</v>
       </c>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-    </row>
-    <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="278" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="284">
-        <v>1</v>
-      </c>
-      <c r="C41" s="285">
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+    </row>
+    <row r="41" spans="1:11" ht="15">
+      <c r="A41" s="277" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="283">
+        <v>1</v>
+      </c>
+      <c r="C41" s="284">
         <v>3</v>
       </c>
-      <c r="D41" s="274"/>
-      <c r="E41" s="285">
+      <c r="D41" s="273">
+        <v>1</v>
+      </c>
+      <c r="E41" s="284">
         <v>3</v>
       </c>
       <c r="F41" s="171"/>
-      <c r="G41" s="285">
+      <c r="G41" s="284">
         <v>3</v>
       </c>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-    </row>
-    <row r="42" spans="1:10" ht="60">
-      <c r="A42" s="278" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="284">
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+    </row>
+    <row r="42" spans="1:11" ht="90">
+      <c r="A42" s="277" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="283">
         <v>0.75</v>
       </c>
-      <c r="C42" s="285">
+      <c r="C42" s="284">
         <v>2</v>
       </c>
-      <c r="D42" s="274"/>
-      <c r="E42" s="285">
+      <c r="D42" s="273">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="284">
         <v>2</v>
       </c>
       <c r="F42" s="171"/>
-      <c r="G42" s="285">
+      <c r="G42" s="284">
         <v>2</v>
       </c>
-      <c r="H42" s="188"/>
-      <c r="J42" s="302" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="165">
-      <c r="A43" s="278" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="284">
-        <v>0</v>
-      </c>
-      <c r="C43" s="285">
+      <c r="H42" s="187"/>
+      <c r="J42" s="301" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="375">
+      <c r="A43" s="277" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="283">
+        <v>0</v>
+      </c>
+      <c r="C43" s="284">
         <v>2</v>
       </c>
-      <c r="D43" s="274"/>
-      <c r="E43" s="285">
+      <c r="D43" s="273">
+        <v>0</v>
+      </c>
+      <c r="E43" s="284">
         <v>2</v>
       </c>
       <c r="F43" s="171"/>
-      <c r="G43" s="285">
+      <c r="G43" s="284">
         <v>2</v>
       </c>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="302" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="278" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="284">
-        <v>1</v>
-      </c>
-      <c r="C44" s="285">
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="301" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15">
+      <c r="A44" s="277" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="283">
+        <v>1</v>
+      </c>
+      <c r="C44" s="284">
         <v>3</v>
       </c>
-      <c r="D44" s="274"/>
-      <c r="E44" s="285">
+      <c r="D44" s="273">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="284">
         <v>3</v>
       </c>
       <c r="F44" s="171"/>
-      <c r="G44" s="285">
+      <c r="G44" s="284">
         <v>3</v>
       </c>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-    </row>
-    <row r="45" spans="1:10" ht="30">
-      <c r="A45" s="278" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="284">
-        <v>1</v>
-      </c>
-      <c r="C45" s="285">
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="K44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30">
+      <c r="A45" s="277" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="283">
+        <v>1</v>
+      </c>
+      <c r="C45" s="284">
         <v>3</v>
       </c>
-      <c r="D45" s="274"/>
-      <c r="E45" s="285">
+      <c r="D45" s="273">
+        <v>1</v>
+      </c>
+      <c r="E45" s="284">
         <v>3</v>
       </c>
       <c r="F45" s="171"/>
-      <c r="G45" s="285">
+      <c r="G45" s="284">
         <v>3</v>
       </c>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-    </row>
-    <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="278" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="284">
-        <v>1</v>
-      </c>
-      <c r="C46" s="285">
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+    </row>
+    <row r="46" spans="1:11" ht="90">
+      <c r="A46" s="277" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="283">
+        <v>1</v>
+      </c>
+      <c r="C46" s="284">
         <v>4</v>
       </c>
-      <c r="D46" s="274"/>
-      <c r="E46" s="285">
+      <c r="D46" s="273">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="284">
         <v>4</v>
       </c>
       <c r="F46" s="171"/>
-      <c r="G46" s="285">
+      <c r="G46" s="284">
         <v>4</v>
       </c>
-      <c r="H46" s="188"/>
-      <c r="I46" s="188"/>
-    </row>
-    <row r="47" spans="1:10" ht="60">
-      <c r="A47" s="279" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="284">
-        <v>1</v>
-      </c>
-      <c r="C47" s="286">
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="K46" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="105">
+      <c r="A47" s="278" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="283">
+        <v>1</v>
+      </c>
+      <c r="C47" s="285">
         <v>10</v>
       </c>
-      <c r="D47" s="274"/>
-      <c r="E47" s="286">
+      <c r="D47" s="273">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="285">
         <v>10</v>
       </c>
       <c r="F47" s="171"/>
-      <c r="G47" s="286">
+      <c r="G47" s="285">
         <v>10</v>
       </c>
-      <c r="H47" s="188"/>
-      <c r="I47" s="188"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
       <c r="J47" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="135">
-      <c r="A48" s="279" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="284">
-        <v>0</v>
-      </c>
-      <c r="C48" s="286">
+        <v>142</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="360">
+      <c r="A48" s="278" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="283">
+        <v>0</v>
+      </c>
+      <c r="C48" s="285">
         <v>6</v>
       </c>
-      <c r="D48" s="274"/>
-      <c r="E48" s="286">
+      <c r="D48" s="273">
+        <v>0</v>
+      </c>
+      <c r="E48" s="285">
         <v>6</v>
       </c>
       <c r="F48" s="171"/>
-      <c r="G48" s="286">
+      <c r="G48" s="285">
         <v>6</v>
       </c>
-      <c r="H48" s="188"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="302" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="279" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="284">
-        <v>1</v>
-      </c>
-      <c r="C49" s="286">
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="301" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15">
+      <c r="A49" s="278" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="283">
+        <v>1</v>
+      </c>
+      <c r="C49" s="285">
         <v>3</v>
       </c>
-      <c r="D49" s="274"/>
-      <c r="E49" s="286">
+      <c r="D49" s="273">
+        <v>1</v>
+      </c>
+      <c r="E49" s="285">
         <v>3</v>
       </c>
       <c r="F49" s="171"/>
-      <c r="G49" s="286">
+      <c r="G49" s="285">
         <v>3</v>
       </c>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
-    </row>
-    <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="289" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="287">
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+    </row>
+    <row r="50" spans="1:11" ht="15">
+      <c r="A50" s="288" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="286">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
         <v>32.5</v>
       </c>
-      <c r="C50" s="288">
+      <c r="C50" s="287">
         <f>SUM(C39:C49)</f>
         <v>41</v>
       </c>
-      <c r="D50" s="291">
+      <c r="D50" s="290">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>23.75</v>
       </c>
       <c r="E50" s="164">
         <f>SUM(E39:E49)</f>
@@ -7703,29 +7885,29 @@
         <f>SUMPRODUCT(F39:F49,G39:G49)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="197">
+      <c r="G50" s="196">
         <f>SUM(G39:G49)</f>
         <v>41</v>
       </c>
-      <c r="H50" s="189"/>
-      <c r="I50" s="188"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="310" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="318"/>
-      <c r="C51" s="318"/>
-      <c r="D51" s="312"/>
-      <c r="E51" s="312"/>
-      <c r="F51" s="312"/>
-      <c r="G51" s="313"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-    </row>
-    <row r="52" spans="1:10" ht="30">
-      <c r="A52" s="199" t="s">
-        <v>135</v>
+      <c r="H50" s="188"/>
+      <c r="I50" s="187"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A51" s="319" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="323"/>
+      <c r="C51" s="323"/>
+      <c r="D51" s="321"/>
+      <c r="E51" s="321"/>
+      <c r="F51" s="321"/>
+      <c r="G51" s="322"/>
+      <c r="H51" s="186"/>
+      <c r="I51" s="186"/>
+    </row>
+    <row r="52" spans="1:11" ht="30">
+      <c r="A52" s="198" t="s">
+        <v>149</v>
       </c>
       <c r="B52" s="172">
         <v>1</v>
@@ -7733,7 +7915,9 @@
       <c r="C52" s="175">
         <v>2</v>
       </c>
-      <c r="D52" s="173"/>
+      <c r="D52" s="173">
+        <v>1</v>
+      </c>
       <c r="E52" s="175">
         <v>2</v>
       </c>
@@ -7741,12 +7925,12 @@
       <c r="G52" s="175">
         <v>2</v>
       </c>
-      <c r="H52" s="189"/>
-      <c r="I52" s="188"/>
-    </row>
-    <row r="53" spans="1:10" ht="30">
-      <c r="A53" s="196" t="s">
-        <v>136</v>
+      <c r="H52" s="188"/>
+      <c r="I52" s="187"/>
+    </row>
+    <row r="53" spans="1:11" ht="45">
+      <c r="A53" s="195" t="s">
+        <v>150</v>
       </c>
       <c r="B53" s="167">
         <v>1</v>
@@ -7754,7 +7938,9 @@
       <c r="C53" s="161">
         <v>2</v>
       </c>
-      <c r="D53" s="168"/>
+      <c r="D53" s="168">
+        <v>0.75</v>
+      </c>
       <c r="E53" s="161">
         <v>2</v>
       </c>
@@ -7762,80 +7948,89 @@
       <c r="G53" s="161">
         <v>2</v>
       </c>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-    </row>
-    <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="196" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="273">
+      <c r="H53" s="187"/>
+      <c r="I53" s="187"/>
+      <c r="K53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15">
+      <c r="A54" s="195" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="272">
         <v>0</v>
       </c>
       <c r="C54" s="161">
         <v>1</v>
       </c>
-      <c r="D54" s="274"/>
+      <c r="D54" s="273">
+        <v>1</v>
+      </c>
       <c r="E54" s="161">
         <v>1</v>
       </c>
-      <c r="F54" s="275"/>
+      <c r="F54" s="274"/>
       <c r="G54" s="161">
         <v>1</v>
       </c>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
       <c r="J54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="120">
-      <c r="A55" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="273">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="120">
+      <c r="A55" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="272">
         <v>1</v>
       </c>
       <c r="C55" s="161">
         <v>4</v>
       </c>
-      <c r="D55" s="274"/>
+      <c r="D55" s="273">
+        <v>1</v>
+      </c>
       <c r="E55" s="161">
         <v>4</v>
       </c>
-      <c r="F55" s="275"/>
+      <c r="F55" s="274"/>
       <c r="G55" s="161">
         <v>4</v>
       </c>
-      <c r="H55" s="188"/>
-      <c r="I55" s="188"/>
-    </row>
-    <row r="56" spans="1:10" ht="45">
-      <c r="A56" s="195" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="303">
+      <c r="H55" s="187"/>
+      <c r="I55" s="187"/>
+    </row>
+    <row r="56" spans="1:11" ht="45">
+      <c r="A56" s="194" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="302">
         <v>1</v>
       </c>
       <c r="C56" s="158">
         <v>2</v>
       </c>
-      <c r="D56" s="176"/>
+      <c r="D56" s="305">
+        <v>1</v>
+      </c>
       <c r="E56" s="158">
         <v>2</v>
       </c>
-      <c r="F56" s="177"/>
+      <c r="F56" s="176"/>
       <c r="G56" s="158">
         <v>2</v>
       </c>
-      <c r="H56" s="190"/>
-      <c r="I56" s="188"/>
-    </row>
-    <row r="57" spans="1:10" ht="15">
-      <c r="A57" s="200" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="178">
+      <c r="H56" s="189"/>
+      <c r="I56" s="187"/>
+    </row>
+    <row r="57" spans="1:11" ht="15">
+      <c r="A57" s="199" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="177">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
         <v>10</v>
       </c>
@@ -7843,114 +8038,114 @@
         <f>SUM(C52:C56)</f>
         <v>11</v>
       </c>
-      <c r="D57" s="179">
+      <c r="D57" s="178">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E57" s="164">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="180">
+      <c r="F57" s="179">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="201">
+      <c r="G57" s="200">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="188"/>
-      <c r="I57" s="188"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="310" t="s">
+      <c r="H57" s="187"/>
+      <c r="I57" s="187"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A58" s="319" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="312"/>
-      <c r="C58" s="312"/>
-      <c r="D58" s="312"/>
-      <c r="E58" s="312"/>
-      <c r="F58" s="312"/>
-      <c r="G58" s="313"/>
-      <c r="H58" s="187"/>
-      <c r="I58" s="187"/>
-    </row>
-    <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="202" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="181">
+      <c r="B58" s="321"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="321"/>
+      <c r="E58" s="321"/>
+      <c r="F58" s="321"/>
+      <c r="G58" s="322"/>
+      <c r="H58" s="186"/>
+      <c r="I58" s="186"/>
+    </row>
+    <row r="59" spans="1:11" ht="15">
+      <c r="A59" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="180">
         <f>B13+B20+B25+B31+B37+B50+B57</f>
         <v>78.25</v>
       </c>
-      <c r="C59" s="182">
+      <c r="C59" s="181">
         <f>C13+C20+C25+C31+C37+C50+C57</f>
         <v>100</v>
       </c>
-      <c r="D59" s="183">
+      <c r="D59" s="182">
         <f>D13+D20+D25+D31+D37+D50+D57</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="184">
+        <v>69</v>
+      </c>
+      <c r="E59" s="183">
         <f>E13+E20+E25+E31+E37+E50+E57</f>
         <v>100</v>
       </c>
-      <c r="F59" s="185">
+      <c r="F59" s="184">
         <f>F13+F20+F25+F31+F37+F50+F57</f>
         <v>0</v>
       </c>
-      <c r="G59" s="203">
+      <c r="G59" s="202">
         <f>G13+G20+G25+G31+G37+G50+G57</f>
         <v>100</v>
       </c>
-      <c r="H59" s="190"/>
-      <c r="I59" s="188"/>
-    </row>
-    <row r="60" spans="1:10" ht="15">
-      <c r="A60" s="204" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="314">
+      <c r="H59" s="189"/>
+      <c r="I59" s="187"/>
+    </row>
+    <row r="60" spans="1:11" ht="15">
+      <c r="A60" s="203" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="331">
         <f>B59/C59</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="C60" s="314"/>
-      <c r="D60" s="315">
+      <c r="C60" s="331"/>
+      <c r="D60" s="332">
         <f>D59/E59</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="315"/>
-      <c r="F60" s="316">
+        <v>0.69</v>
+      </c>
+      <c r="E60" s="332"/>
+      <c r="F60" s="333">
         <f>F59/G59</f>
         <v>0</v>
       </c>
-      <c r="G60" s="317"/>
-      <c r="H60" s="192"/>
-      <c r="I60" s="192"/>
-    </row>
-    <row r="61" spans="1:10" ht="15">
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-    </row>
-    <row r="62" spans="1:10" ht="15">
-      <c r="H62" s="191"/>
-      <c r="I62" s="191"/>
-    </row>
-    <row r="63" spans="1:10" ht="15">
-      <c r="H63" s="191"/>
-      <c r="I63" s="191"/>
-    </row>
-    <row r="64" spans="1:10" ht="15">
-      <c r="H64" s="191"/>
-      <c r="I64" s="191"/>
+      <c r="G60" s="334"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+    </row>
+    <row r="61" spans="1:11" ht="15">
+      <c r="H61" s="190"/>
+      <c r="I61" s="190"/>
+    </row>
+    <row r="62" spans="1:11" ht="15">
+      <c r="H62" s="190"/>
+      <c r="I62" s="190"/>
+    </row>
+    <row r="63" spans="1:11" ht="15">
+      <c r="H63" s="190"/>
+      <c r="I63" s="190"/>
+    </row>
+    <row r="64" spans="1:11" ht="15">
+      <c r="H64" s="190"/>
+      <c r="I64" s="190"/>
     </row>
     <row r="65" spans="8:9" ht="15">
-      <c r="H65" s="191"/>
-      <c r="I65" s="191"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="190"/>
     </row>
     <row r="66" spans="8:9" ht="15">
-      <c r="H66" s="191"/>
-      <c r="I66" s="191"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="190"/>
     </row>
     <row r="67" spans="8:9" ht="15"/>
     <row r="68" spans="8:9" ht="15"/>
@@ -7963,6 +8158,13 @@
     <row r="75" spans="8:9" ht="15"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="J5:L5"/>
@@ -7974,13 +8176,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A51:G51"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -8001,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8013,1034 +8208,1034 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="343" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="343" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="344" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
+      <c r="A5" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="345"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="345" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="346"/>
+      <c r="B6" s="346" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="346"/>
+      <c r="D6" s="346"/>
+      <c r="E6" s="346"/>
+      <c r="F6" s="347"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="209" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="210" t="s">
+      <c r="A7" s="208" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="210" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="210" t="s">
+      <c r="C7" s="209" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="210" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="211" t="s">
+      <c r="E7" s="209" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="210" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="165">
-      <c r="A8" s="212" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="213">
+      <c r="A8" s="211" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="212">
         <v>0.9</v>
       </c>
-      <c r="C8" s="213">
-        <v>1</v>
-      </c>
-      <c r="D8" s="213">
+      <c r="C8" s="212">
+        <v>1</v>
+      </c>
+      <c r="D8" s="212">
         <v>14</v>
       </c>
-      <c r="E8" s="213">
+      <c r="E8" s="212">
         <f t="shared" ref="E8:E19" si="0">B8*C8*D8</f>
         <v>12.6</v>
       </c>
-      <c r="F8" s="301" t="s">
-        <v>148</v>
+      <c r="F8" s="300" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="212" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="213">
-        <v>1</v>
-      </c>
-      <c r="C9" s="213">
-        <v>1</v>
-      </c>
-      <c r="D9" s="213">
+      <c r="A9" s="211" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="212">
+        <v>1</v>
+      </c>
+      <c r="C9" s="212">
+        <v>1</v>
+      </c>
+      <c r="D9" s="212">
         <v>7</v>
       </c>
-      <c r="E9" s="213">
+      <c r="E9" s="212">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9" s="215"/>
+      <c r="F9" s="214"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="213">
-        <v>1</v>
-      </c>
-      <c r="C10" s="213">
+      <c r="A10" s="211" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="212">
+        <v>1</v>
+      </c>
+      <c r="C10" s="212">
         <v>0.5</v>
       </c>
-      <c r="D10" s="213">
+      <c r="D10" s="212">
         <v>12</v>
       </c>
-      <c r="E10" s="213">
+      <c r="E10" s="212">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="301" t="s">
-        <v>151</v>
+      <c r="F10" s="300" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105">
-      <c r="A11" s="212" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="300">
+      <c r="A11" s="211" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="299">
         <f>12/13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="C11" s="213">
+      <c r="C11" s="212">
         <v>0.75</v>
       </c>
-      <c r="D11" s="213">
+      <c r="D11" s="212">
         <v>10</v>
       </c>
-      <c r="E11" s="300">
+      <c r="E11" s="299">
         <f t="shared" si="0"/>
         <v>6.9230769230769234</v>
       </c>
-      <c r="F11" s="301" t="s">
-        <v>153</v>
+      <c r="F11" s="300" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75">
-      <c r="A12" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="213">
+      <c r="A12" s="211" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="212">
         <v>0.85</v>
       </c>
-      <c r="C12" s="213">
-        <v>1</v>
-      </c>
-      <c r="D12" s="213">
+      <c r="C12" s="212">
+        <v>1</v>
+      </c>
+      <c r="D12" s="212">
         <v>6</v>
       </c>
-      <c r="E12" s="213">
+      <c r="E12" s="212">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F12" s="214" t="s">
-        <v>155</v>
+      <c r="F12" s="213" t="s">
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="212" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="213">
-        <v>1</v>
-      </c>
-      <c r="C13" s="213">
-        <v>1</v>
-      </c>
-      <c r="D13" s="213">
+      <c r="A13" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="212">
+        <v>1</v>
+      </c>
+      <c r="C13" s="212">
+        <v>1</v>
+      </c>
+      <c r="D13" s="212">
         <v>7</v>
       </c>
-      <c r="E13" s="213">
+      <c r="E13" s="212">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F13" s="214"/>
+      <c r="F13" s="213"/>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
-      <c r="A14" s="212" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="213">
-        <v>1</v>
-      </c>
-      <c r="C14" s="213">
+      <c r="A14" s="211" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="212">
+        <v>1</v>
+      </c>
+      <c r="C14" s="212">
         <v>0.75</v>
       </c>
-      <c r="D14" s="213">
+      <c r="D14" s="212">
         <v>8</v>
       </c>
-      <c r="E14" s="213">
+      <c r="E14" s="212">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F14" s="214" t="s">
-        <v>159</v>
+      <c r="F14" s="213" t="s">
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="212" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="213">
+      <c r="A15" s="211" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="212">
         <v>0.95</v>
       </c>
-      <c r="C15" s="213">
-        <v>1</v>
-      </c>
-      <c r="D15" s="213">
+      <c r="C15" s="212">
+        <v>1</v>
+      </c>
+      <c r="D15" s="212">
         <v>8</v>
       </c>
-      <c r="E15" s="213">
+      <c r="E15" s="212">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F15" s="214" t="s">
-        <v>161</v>
+      <c r="F15" s="213" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60">
-      <c r="A16" s="212" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="213">
+      <c r="A16" s="211" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="212">
         <v>0.85</v>
       </c>
-      <c r="C16" s="213">
-        <v>1</v>
-      </c>
-      <c r="D16" s="213">
+      <c r="C16" s="212">
+        <v>1</v>
+      </c>
+      <c r="D16" s="212">
         <v>8</v>
       </c>
-      <c r="E16" s="213">
+      <c r="E16" s="212">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="F16" s="214" t="s">
-        <v>163</v>
+      <c r="F16" s="213" t="s">
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60">
-      <c r="A17" s="212" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="213">
+      <c r="A17" s="211" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="212">
         <v>0.9</v>
       </c>
-      <c r="C17" s="213">
+      <c r="C17" s="212">
         <v>0.75</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D17" s="212">
         <v>7</v>
       </c>
-      <c r="E17" s="213">
+      <c r="E17" s="212">
         <f t="shared" si="0"/>
         <v>4.7250000000000005</v>
       </c>
-      <c r="F17" s="214" t="s">
-        <v>166</v>
+      <c r="F17" s="213" t="s">
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="165">
-      <c r="A18" s="212" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="213">
+      <c r="A18" s="211" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="212">
         <v>0.75</v>
       </c>
-      <c r="C18" s="213">
+      <c r="C18" s="212">
         <v>0.75</v>
       </c>
-      <c r="D18" s="213">
+      <c r="D18" s="212">
         <v>5</v>
       </c>
-      <c r="E18" s="213">
+      <c r="E18" s="212">
         <f t="shared" si="0"/>
         <v>2.8125</v>
       </c>
-      <c r="F18" s="214" t="s">
-        <v>168</v>
+      <c r="F18" s="213" t="s">
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60">
-      <c r="A19" s="212" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="213">
-        <v>1</v>
-      </c>
-      <c r="C19" s="213">
-        <v>1</v>
-      </c>
-      <c r="D19" s="213">
+      <c r="A19" s="211" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="212">
+        <v>1</v>
+      </c>
+      <c r="C19" s="212">
+        <v>1</v>
+      </c>
+      <c r="D19" s="212">
         <v>8</v>
       </c>
-      <c r="E19" s="213">
+      <c r="E19" s="212">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F19" s="214" t="s">
-        <v>170</v>
+      <c r="F19" s="213" t="s">
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="216" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="347"/>
-      <c r="C20" s="347"/>
+      <c r="A20" s="215" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="348"/>
+      <c r="C20" s="348"/>
       <c r="D20" s="304">
         <f>SUM(D8:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="266">
+      <c r="E20" s="265">
         <f>SUM(E8:E19)/D20 - E22*D22 - E21*D21</f>
         <v>0.80560576923076921</v>
       </c>
-      <c r="F20" s="217"/>
+      <c r="F20" s="216"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="218" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="219">
+      <c r="A21" s="217" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="218">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="218" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="219">
+      <c r="A22" s="217" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="218">
         <v>0.2</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="348" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="349"/>
-      <c r="C23" s="349"/>
-      <c r="D23" s="349"/>
-      <c r="E23" s="349"/>
-      <c r="F23" s="350"/>
+      <c r="A23" s="349" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="350"/>
+      <c r="C23" s="350"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="350"/>
+      <c r="F23" s="351"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="228" t="s">
+      <c r="A24" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="334" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="335"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="335"/>
-      <c r="F24" s="336"/>
+      <c r="B24" s="335" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="336"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="337"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="228" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="220" t="s">
+      <c r="A25" s="227" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="220" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="220" t="s">
+      <c r="C25" s="219" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="220" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="229" t="s">
+      <c r="E25" s="219" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="228" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="105">
-      <c r="A26" s="228" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="241">
+      <c r="A26" s="227" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="240">
         <v>0.79</v>
       </c>
-      <c r="C26" s="241">
-        <v>1</v>
-      </c>
-      <c r="D26" s="220">
+      <c r="C26" s="240">
+        <v>1</v>
+      </c>
+      <c r="D26" s="219">
         <v>14</v>
       </c>
-      <c r="E26" s="220">
+      <c r="E26" s="219">
         <f>B26*C26*D26</f>
         <v>11.06</v>
       </c>
-      <c r="F26" s="229" t="s">
-        <v>177</v>
+      <c r="F26" s="228" t="s">
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="90">
-      <c r="A27" s="228" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="241">
+      <c r="A27" s="227" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="240">
         <v>0.88</v>
       </c>
-      <c r="C27" s="241">
-        <v>1</v>
-      </c>
-      <c r="D27" s="220">
+      <c r="C27" s="240">
+        <v>1</v>
+      </c>
+      <c r="D27" s="219">
         <v>15</v>
       </c>
-      <c r="E27" s="220">
+      <c r="E27" s="219">
         <f t="shared" ref="E27:E37" si="1">B27*C27*D27</f>
         <v>13.2</v>
       </c>
-      <c r="F27" s="229" t="s">
-        <v>180</v>
+      <c r="F27" s="228" t="s">
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="228" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="241">
+      <c r="A28" s="227" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="240">
         <v>0.95</v>
       </c>
-      <c r="C28" s="241">
-        <v>1</v>
-      </c>
-      <c r="D28" s="220">
+      <c r="C28" s="240">
+        <v>1</v>
+      </c>
+      <c r="D28" s="219">
         <v>5</v>
       </c>
-      <c r="E28" s="220">
+      <c r="E28" s="219">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F28" s="229" t="s">
-        <v>182</v>
+      <c r="F28" s="228" t="s">
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45">
-      <c r="A29" s="228" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="241">
+      <c r="A29" s="227" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="240">
         <v>0.75</v>
       </c>
-      <c r="C29" s="241">
-        <v>1</v>
-      </c>
-      <c r="D29" s="220">
+      <c r="C29" s="240">
+        <v>1</v>
+      </c>
+      <c r="D29" s="219">
         <v>6</v>
       </c>
-      <c r="E29" s="220">
+      <c r="E29" s="219">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F29" s="229" t="s">
-        <v>184</v>
+      <c r="F29" s="228" t="s">
+        <v>199</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75">
-      <c r="A30" s="228" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="241">
+      <c r="A30" s="227" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="240">
         <v>0.87</v>
       </c>
-      <c r="C30" s="241">
-        <v>1</v>
-      </c>
-      <c r="D30" s="220">
+      <c r="C30" s="240">
+        <v>1</v>
+      </c>
+      <c r="D30" s="219">
         <v>6</v>
       </c>
-      <c r="E30" s="220">
+      <c r="E30" s="219">
         <f t="shared" si="1"/>
         <v>5.22</v>
       </c>
-      <c r="F30" s="229" t="s">
-        <v>187</v>
+      <c r="F30" s="228" t="s">
+        <v>202</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60">
-      <c r="A31" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="241">
+      <c r="A31" s="227" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="240">
         <v>0.85</v>
       </c>
-      <c r="C31" s="241">
-        <v>1</v>
-      </c>
-      <c r="D31" s="220">
+      <c r="C31" s="240">
+        <v>1</v>
+      </c>
+      <c r="D31" s="219">
         <v>10</v>
       </c>
-      <c r="E31" s="220">
+      <c r="E31" s="219">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="F31" s="229" t="s">
-        <v>189</v>
+      <c r="F31" s="228" t="s">
+        <v>204</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="228" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="241">
-        <v>1</v>
-      </c>
-      <c r="C32" s="241">
-        <v>1</v>
-      </c>
-      <c r="D32" s="220">
+      <c r="A32" s="227" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="240">
+        <v>1</v>
+      </c>
+      <c r="C32" s="240">
+        <v>1</v>
+      </c>
+      <c r="D32" s="219">
         <v>6</v>
       </c>
-      <c r="E32" s="220">
+      <c r="E32" s="219">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F32" s="229"/>
+      <c r="F32" s="228"/>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="105">
-      <c r="A33" s="228" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="241">
+      <c r="A33" s="227" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="240">
         <v>0.7</v>
       </c>
-      <c r="C33" s="241">
-        <v>1</v>
-      </c>
-      <c r="D33" s="220">
+      <c r="C33" s="240">
+        <v>1</v>
+      </c>
+      <c r="D33" s="219">
         <v>6</v>
       </c>
-      <c r="E33" s="220">
+      <c r="E33" s="219">
         <f t="shared" si="1"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="F33" s="229" t="s">
-        <v>192</v>
+      <c r="F33" s="228" t="s">
+        <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="90">
-      <c r="A34" s="228" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="241">
+      <c r="A34" s="227" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="240">
         <v>0.9</v>
       </c>
-      <c r="C34" s="241">
-        <v>1</v>
-      </c>
-      <c r="D34" s="220">
+      <c r="C34" s="240">
+        <v>1</v>
+      </c>
+      <c r="D34" s="219">
         <v>8</v>
       </c>
-      <c r="E34" s="220">
+      <c r="E34" s="219">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="F34" s="229" t="s">
-        <v>194</v>
+      <c r="F34" s="228" t="s">
+        <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75">
-      <c r="A35" s="228" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="241">
+      <c r="A35" s="227" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="240">
         <v>0.95</v>
       </c>
-      <c r="C35" s="241">
-        <v>1</v>
-      </c>
-      <c r="D35" s="220">
+      <c r="C35" s="240">
+        <v>1</v>
+      </c>
+      <c r="D35" s="219">
         <v>8</v>
       </c>
-      <c r="E35" s="220">
+      <c r="E35" s="219">
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
-      <c r="F35" s="229" t="s">
-        <v>196</v>
+      <c r="F35" s="228" t="s">
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="228" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="241">
+      <c r="A36" s="227" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="240">
         <v>0.9</v>
       </c>
-      <c r="C36" s="241">
+      <c r="C36" s="240">
         <v>0.75</v>
       </c>
-      <c r="D36" s="220">
+      <c r="D36" s="219">
         <v>14</v>
       </c>
-      <c r="E36" s="220">
+      <c r="E36" s="219">
         <f t="shared" si="1"/>
         <v>9.4500000000000011</v>
       </c>
-      <c r="F36" s="229" t="s">
-        <v>198</v>
+      <c r="F36" s="228" t="s">
+        <v>213</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="228" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="241">
-        <v>1</v>
-      </c>
-      <c r="C37" s="241">
-        <v>1</v>
-      </c>
-      <c r="D37" s="220">
+      <c r="A37" s="227" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="240">
+        <v>1</v>
+      </c>
+      <c r="C37" s="240">
+        <v>1</v>
+      </c>
+      <c r="D37" s="219">
         <v>2</v>
       </c>
-      <c r="E37" s="220">
+      <c r="E37" s="219">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F37" s="229"/>
+      <c r="F37" s="228"/>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="230" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250">
+      <c r="A38" s="229" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="230"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249">
         <f>SUM(D26:D37)</f>
         <v>100</v>
       </c>
-      <c r="E38" s="232">
+      <c r="E38" s="231">
         <f>SUM(E26:E37)/D38 -E39*D39 -E40*D40-E41*D41</f>
         <v>0.83679999999999988</v>
       </c>
-      <c r="F38" s="233"/>
+      <c r="F38" s="232"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="221" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="252"/>
-      <c r="D39" s="251">
+      <c r="A39" s="220" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="251"/>
+      <c r="D39" s="250">
         <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="221" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="222">
+      <c r="A40" s="220" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="221">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="221" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="223">
+      <c r="A41" s="220" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="222">
         <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="23.25">
-      <c r="A42" s="337" t="s">
+      <c r="A42" s="338" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="338"/>
-      <c r="C42" s="338"/>
-      <c r="D42" s="338"/>
-      <c r="E42" s="338"/>
-      <c r="F42" s="339"/>
+      <c r="B42" s="339"/>
+      <c r="C42" s="339"/>
+      <c r="D42" s="339"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="340"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="234" t="s">
+      <c r="A43" s="233" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="341"/>
+      <c r="B43" s="341"/>
+      <c r="C43" s="341"/>
+      <c r="D43" s="341"/>
+      <c r="E43" s="341"/>
+      <c r="F43" s="342"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="235" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="224" t="s">
+      <c r="A44" s="234" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="224" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="224" t="s">
+      <c r="C44" s="223" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="224" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="236" t="s">
+      <c r="E44" s="223" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="235" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="237" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="225">
+      <c r="A45" s="236" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="224"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="224">
         <v>8</v>
       </c>
-      <c r="E45" s="225">
+      <c r="E45" s="224">
         <f t="shared" ref="E45:E57" si="2">B45*C45*D45</f>
         <v>0</v>
       </c>
-      <c r="F45" s="236"/>
+      <c r="F45" s="235"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="237" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="225"/>
-      <c r="C46" s="225"/>
-      <c r="D46" s="225">
+      <c r="A46" s="236" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="224"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="224">
         <v>6</v>
       </c>
-      <c r="E46" s="225">
+      <c r="E46" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="238"/>
+      <c r="F46" s="237"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="237" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225">
+      <c r="A47" s="236" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="224"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224">
         <v>6</v>
       </c>
-      <c r="E47" s="225">
+      <c r="E47" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="236"/>
+      <c r="F47" s="235"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="237" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" s="225"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225">
+      <c r="A48" s="236" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="224"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224">
         <v>6</v>
       </c>
-      <c r="E48" s="225">
+      <c r="E48" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="238"/>
+      <c r="F48" s="237"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="237" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="225"/>
-      <c r="C49" s="225"/>
-      <c r="D49" s="225">
+      <c r="A49" s="236" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="224"/>
+      <c r="C49" s="224"/>
+      <c r="D49" s="224">
         <v>10</v>
       </c>
-      <c r="E49" s="225">
+      <c r="E49" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="236"/>
+      <c r="F49" s="235"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="237" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="225"/>
-      <c r="C50" s="225"/>
-      <c r="D50" s="225">
+      <c r="A50" s="236" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="224"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224">
         <v>10</v>
       </c>
-      <c r="E50" s="225">
+      <c r="E50" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="236"/>
+      <c r="F50" s="235"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="237" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="225"/>
-      <c r="C51" s="225"/>
-      <c r="D51" s="225">
+      <c r="A51" s="236" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="224"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="224">
         <v>12</v>
       </c>
-      <c r="E51" s="225">
+      <c r="E51" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="236"/>
+      <c r="F51" s="235"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="237" t="s">
-        <v>208</v>
-      </c>
-      <c r="B52" s="243"/>
-      <c r="C52" s="243"/>
-      <c r="D52" s="225">
+      <c r="A52" s="236" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="242"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="224">
         <v>12</v>
       </c>
-      <c r="E52" s="225">
+      <c r="E52" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52" s="236"/>
+      <c r="F52" s="235"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="247" t="s">
-        <v>209</v>
-      </c>
-      <c r="B53" s="245"/>
-      <c r="C53" s="245"/>
-      <c r="D53" s="242">
+      <c r="A53" s="246" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="244"/>
+      <c r="C53" s="244"/>
+      <c r="D53" s="241">
         <v>6</v>
       </c>
-      <c r="E53" s="225">
+      <c r="E53" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F53" s="244"/>
+      <c r="F53" s="243"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="247" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="245"/>
-      <c r="C54" s="245"/>
-      <c r="D54" s="242">
+      <c r="A54" s="246" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="244"/>
+      <c r="C54" s="244"/>
+      <c r="D54" s="241">
         <v>5</v>
       </c>
-      <c r="E54" s="225">
+      <c r="E54" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F54" s="244"/>
+      <c r="F54" s="243"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="247" t="s">
-        <v>211</v>
-      </c>
-      <c r="B55" s="245"/>
-      <c r="C55" s="245"/>
-      <c r="D55" s="242">
+      <c r="A55" s="246" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="244"/>
+      <c r="C55" s="244"/>
+      <c r="D55" s="241">
         <v>5</v>
       </c>
-      <c r="E55" s="225">
+      <c r="E55" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F55" s="244"/>
+      <c r="F55" s="243"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="247" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" s="245"/>
-      <c r="C56" s="245"/>
-      <c r="D56" s="242">
+      <c r="A56" s="246" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="244"/>
+      <c r="C56" s="244"/>
+      <c r="D56" s="241">
         <v>4</v>
       </c>
-      <c r="E56" s="225">
+      <c r="E56" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F56" s="244"/>
+      <c r="F56" s="243"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="247" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="245"/>
-      <c r="C57" s="245"/>
-      <c r="D57" s="242">
+      <c r="A57" s="246" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="244"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="241">
         <v>8</v>
       </c>
-      <c r="E57" s="225">
+      <c r="E57" s="224">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F57" s="244"/>
+      <c r="F57" s="243"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="247" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="245"/>
-      <c r="C58" s="245"/>
-      <c r="D58" s="242">
+      <c r="A58" s="246" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="244"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="241">
         <v>2</v>
       </c>
-      <c r="E58" s="225">
+      <c r="E58" s="224">
         <f t="shared" ref="E52:E58" si="3">B58*C58*D58</f>
         <v>0</v>
       </c>
-      <c r="F58" s="244"/>
+      <c r="F58" s="243"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="248" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="246"/>
-      <c r="C59" s="246"/>
-      <c r="D59" s="249">
+      <c r="A59" s="247" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="245"/>
+      <c r="C59" s="245"/>
+      <c r="D59" s="248">
         <f>SUM(D45:D58)</f>
         <v>100</v>
       </c>
-      <c r="E59" s="239">
+      <c r="E59" s="238">
         <f>SUM(E45:E58)/D59 - D60*E60  - D61*E61 - D62*E62</f>
         <v>0</v>
       </c>
-      <c r="F59" s="240"/>
+      <c r="F59" s="239"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="226" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="222">
+      <c r="A60" s="225" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="221">
         <v>0.15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="226" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="222">
+      <c r="A61" s="225" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="221">
         <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="227" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="223">
+      <c r="A62" s="226" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="222">
         <v>0.05</v>
       </c>
     </row>
@@ -9109,7 +9304,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="308" t="s">
+      <c r="G2" s="309" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9122,11 +9317,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="308"/>
+      <c r="G3" s="309"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -9152,7 +9347,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -9165,7 +9360,7 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="65" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -9178,7 +9373,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -9191,7 +9386,7 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="65" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -9204,7 +9399,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -9217,7 +9412,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -9230,7 +9425,7 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="65" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -9243,7 +9438,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -9256,7 +9451,7 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="65" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -9269,7 +9464,7 @@
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="65" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -9282,7 +9477,7 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="65" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -9295,7 +9490,7 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="65" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -9308,7 +9503,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -9321,7 +9516,7 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="65" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -9334,7 +9529,7 @@
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="65" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -9347,7 +9542,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -9360,7 +9555,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="65" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -9373,7 +9568,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -9386,7 +9581,7 @@
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="65" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -9399,7 +9594,7 @@
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="65" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -9412,7 +9607,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -9425,7 +9620,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -9522,10 +9717,10 @@
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
-      <c r="H33" s="309" t="s">
+      <c r="H33" s="310" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="309"/>
+      <c r="I33" s="310"/>
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="52" t="s">
@@ -9775,7 +9970,7 @@
     <row r="49" spans="1:6" ht="15"/>
     <row r="50" spans="1:6" ht="15">
       <c r="A50" s="92" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -9977,6 +10172,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9985,22 +10186,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Equipe103.xlsx
+++ b/Equipe103.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23517"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39db\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B3425DE-99C9-48BF-B681-A4148D3858D3}"/>
+  <xr:revisionPtr revIDLastSave="530" documentId="8_{5D30225E-8201-4AB0-8799-B58CD7CB5EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97AA367A-A1B4-4934-AC0C-1D08A3536998}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="280">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée et elle est non triviale.</t>
+  </si>
+  <si>
+    <t>Sidebar component a trop de responsabilités</t>
   </si>
   <si>
     <t>Le nom de la classe est approprié. _x000D_
@@ -328,6 +331,9 @@
 PolygoneService, des attributs et des fonctions devraient être private</t>
   </si>
   <si>
+    <t>stamp.component.ts atributs qui devraient être private</t>
+  </si>
+  <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière consistante (soit dans le constructeur partout, soit à la définition)</t>
   </si>
   <si>
@@ -337,6 +343,9 @@
   <si>
     <t>ColorComponent, initialisation en dehors et à l'interieur du constructeur
 DialogExportDrawingComponent même chose</t>
+  </si>
+  <si>
+    <t>certaines classes init des attributs apres le constructeur</t>
   </si>
   <si>
     <t>Total de la catégorie</t>
@@ -361,6 +370,10 @@
 </t>
   </si>
   <si>
+    <t>tmpLineText, tmpLineTextStack noms imprécis. Ajouter un verbe au début du nom de la fonction aide. 
+noms imprécis TextService -&gt; position, xTop, yTop.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
   </si>
   <si>
@@ -369,6 +382,10 @@
 -0.25 Brush.service.ts drawLine, extraire des fonctions pour les outils</t>
   </si>
   <si>
+    <t xml:space="preserve">onArrowDown de ArrowInfo beaucoup de logique pour plusieurs outils.
+</t>
+  </si>
+  <si>
     <t>Les fonctions minimisent les paramètres en entrée (pas plus de trois).
 Utilisation d'interfaces ou de classe pour des paramètres pouvant être regroupé logiquement.</t>
   </si>
@@ -383,6 +400,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">MagicWandService drawSelection -&gt; imagePosition inutilisé.
+</t>
+  </si>
+  <si>
     <t>Exceptions (Labonté)</t>
   </si>
   <si>
@@ -393,6 +414,9 @@
 Aucune gestion des retours des requêtes http</t>
   </si>
   <si>
+    <t>Exceptions non fixé</t>
+  </si>
+  <si>
     <t>Toute fonction doit gérer les valeurs limites de leurs paramètres</t>
   </si>
   <si>
@@ -403,6 +427,9 @@
 UndoRedoService undo ne semble pas nécessiter d'être async.</t>
   </si>
   <si>
+    <t>getAllLabels non fixé.</t>
+  </si>
+  <si>
     <t>Variables (Lamontagne)</t>
   </si>
   <si>
@@ -412,10 +439,18 @@
     <t>SelectionService constantes devraient être readonly</t>
   </si>
   <si>
+    <t>text.service 
+email.controller Préférez les constantes de classes aux constantes globales</t>
+  </si>
+  <si>
     <t>Les constantes doivent être utilisées seulement dans un contexte lié à la logique d'affaire. (mauvais exemple: const DEUX = 2, bon exemple : const WAIT_TIME = 5000)</t>
   </si>
   <si>
     <t>ColorService VALUE_TEN</t>
+  </si>
+  <si>
+    <t>dropper.service FORTY
+line.service minusOne et compagnie</t>
   </si>
   <si>
     <t>L'utilisation d'une variable locale (let ou const) doit être justifiée par son utilisation.</t>
@@ -436,6 +471,13 @@
 databaseService boolTestCancas</t>
   </si>
   <si>
+    <t>writeTextOptionComponent itItalic, itBold
+magicWandService magnetismReturn,selectWandAc
+rotation service isWheelAdd
+grid-service h, w
+email.service nomFile</t>
+  </si>
+  <si>
     <t>Expression Booléennes (William)</t>
   </si>
   <si>
@@ -446,6 +488,9 @@
   </si>
   <si>
     <t>Utilisation des opérateurs ternaires dans les bon scénario</t>
+  </si>
+  <si>
+    <t>- control-points.ts méthode draw utilisation d'un ternaire pour fillStyle -0.25</t>
   </si>
   <si>
     <t>Pas d'expressions booléennes complexes. 
@@ -505,6 +550,9 @@
 PolygonService -&gt; selectPolygon les switchs -0.25</t>
   </si>
   <si>
+    <t>- color.component.ts et paint-bucket-color.component.ts encore de la duplication ici -0.5</t>
+  </si>
+  <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
 L'utilisation raisonnable de tslint:disable est tolérée dans les fichiers spec.ts.</t>
   </si>
@@ -514,6 +562,10 @@
   <si>
     <t>tslint disables abusifs pour no-magic-numbers. Dans plusieurs cas il est possible d'utiliser des constantes. -0.25
 tslint:disable du isnan inutile et non justifié (Number.isNan() à la place) - 0.25</t>
+  </si>
+  <si>
+    <t>Mêmes erreurs que sprint 2 pour isNaN
+- client-server-communication.service.ts tslint:disable:ban-types non justifiable ici -0.25</t>
   </si>
   <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
@@ -529,6 +581,12 @@
 dialog-upload.component.ts méthode saveServer inverser le if et early return. -0.25
 brush.service.ts méthode onMouseDown inverser le if et early return. Même chose pour onMouseUp, onMouseMove, onMouseOut - 0.25
 Même chose que le point précédent dans eraser.service, selection-ellipse.service, selection-rectangle.service, etc. -0.25</t>
+  </si>
+  <si>
+    <t>- arrow-info.ts méthode onArrowDown inverser le premier if et early return -0.25
+- text-control.ts méthode endLineReturn, else redondant (early return dans le if) -0.25
+- color.component.ts méthode onMouseLastColorClick, inversion du if et early return -0.25
+- brush.service.ts méthode onMouseOut, inversion du if et early return. -0.25</t>
   </si>
   <si>
     <t>Le logiciel a une performance acceptable.</t>
@@ -764,33 +822,70 @@
     <t>Anciennes fonctionnalités brisées</t>
   </si>
   <si>
+    <t>e2b28d0e239ebdc57dc7bbe7768b664e1d82b00f</t>
+  </si>
+  <si>
     <t>Outil - Sélection par baguette magique</t>
   </si>
   <si>
+    <t xml:space="preserve">Il n'y a pas de contour de sélection pour délimiter les pixels sélectionnés
+</t>
+  </si>
+  <si>
     <t>Outil - Plume</t>
   </si>
   <si>
+    <t>Lorsqu'on change l'orientation pendant l'utilisation, toute la ligne est affectée par le changement. 
+On peut avoir un angle négatif ou supérieur à 360 dans la barre d'outils.</t>
+  </si>
+  <si>
     <t>Outil- Aérosol</t>
   </si>
   <si>
+    <t xml:space="preserve">L'aérosol ne devrait émettre un seul jet par seconde mais plutôt plusieurs jets avec un nombre de goutelettes total équivalent à l'émission par seconde.
+</t>
+  </si>
+  <si>
     <t>Outil - Étampe</t>
   </si>
   <si>
+    <t>On peut avoir un angle négatif ou supérieur à 360 dans la barre d'outils.
+La rotation prend beaucoup de temps avant de faire la prévisualisation.</t>
+  </si>
+  <si>
     <t>Outil - Texte</t>
   </si>
   <si>
+    <t xml:space="preserve">La prévisualisation du texte ne change pas lorsqu'on modifie la taille/police et n'affiche pas la bonne couleur.
+</t>
+  </si>
+  <si>
     <t>Manipulations de sélections et presse-papier</t>
   </si>
   <si>
+    <t>-"Les actions couper, copier, coller et supprimer ne sont pas disponibles sans une sélection courante." Même sans sélection courante, les boutons sont cliquables.</t>
+  </si>
+  <si>
     <t>Redimensionnement d'une sélection</t>
   </si>
   <si>
+    <t>-"Il est possible d’utiliser le redimensionnement pour créer un effet miroir sur la sélection." ne fonctionne pas.
+- La touche shift a une inversion par rapport à l'horizontal (aller à droite rétrécit vers la gauche) et le point d'ancrage opposé est modifié. Moitié des points pour Shift</t>
+  </si>
+  <si>
     <t>Rotation d'une sélection</t>
   </si>
   <si>
+    <t>La boîte de sélection ne change pas avec la rotation -0.1
+Un test plante "should call onWheelScroll when scrolling using the mouse wheel and changeFeatherAngle is called FAILED"</t>
+  </si>
+  <si>
     <t>Envoyer le dessin par courriel</t>
   </si>
   <si>
+    <t>ctrl-e ne permet pas d'exporter par courriel.</t>
+  </si>
+  <si>
     <t>Sauvegarde automatique</t>
   </si>
   <si>
@@ -800,7 +895,14 @@
     <t>Grille</t>
   </si>
   <si>
+    <t>Impossible de redimenssioner la grille sans être sur les paramètres de la grille avec - et +.
+la valeur de l'opacité peut être de 0 et la valeur maximale de la grille est trop élevée.</t>
+  </si>
+  <si>
     <t>Magnétisme</t>
+  </si>
+  <si>
+    <t>Impossible de déplacer le magnétisme avec la souris</t>
   </si>
   <si>
     <t>Implémentation d’un joueur virtuel avec deux niveaux: facile et difficile</t>
@@ -3101,7 +3203,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3486,9 +3588,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3864,10 +3963,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="91" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3885,6 +3994,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3909,21 +4045,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3940,21 +4064,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4010,13 +4119,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4871,18 +4980,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15"/>
     <row r="2" spans="1:11" ht="15">
-      <c r="C2" s="306" t="s">
+      <c r="C2" s="309" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="306"/>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="309"/>
+      <c r="E2" s="310" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="307"/>
-      <c r="G2" s="308" t="s">
+      <c r="F2" s="310"/>
+      <c r="G2" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="308"/>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="2"/>
@@ -5163,7 +5272,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5176,7 +5285,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="309"/>
+      <c r="G3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="58" t="s">
@@ -5498,10 +5607,10 @@
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
       <c r="F27" s="85"/>
-      <c r="H27" s="310" t="s">
+      <c r="H27" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="310"/>
+      <c r="I27" s="313"/>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="52" t="s">
@@ -5856,7 +5965,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5869,7 +5978,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="309"/>
+      <c r="G3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -6243,10 +6352,10 @@
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
       <c r="F31" s="85"/>
-      <c r="H31" s="310" t="s">
+      <c r="H31" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="310"/>
+      <c r="I31" s="313"/>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="52" t="s">
@@ -6570,7 +6679,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6583,17 +6692,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="205"/>
-      <c r="B3" s="252" t="s">
+      <c r="A3" s="204"/>
+      <c r="B3" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="252" t="s">
+      <c r="C3" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="252" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6604,90 +6713,92 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="255">
+      <c r="A4" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="254">
         <f>(Fonctionnalités!E20)</f>
         <v>0.80560576923076921</v>
       </c>
-      <c r="C4" s="256">
+      <c r="C4" s="255">
         <f>'Assurance Qualité'!B60</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="D4" s="256">
+      <c r="D4" s="255">
         <f>AVERAGE(B4:C4) - 0.1*E4</f>
         <v>0.79405288461538459</v>
       </c>
-      <c r="F4" s="267">
+      <c r="F4" s="266">
         <v>15</v>
       </c>
-      <c r="G4" s="266">
+      <c r="G4" s="265">
         <f>D4*F4</f>
         <v>11.910793269230769</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="257" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="258">
+      <c r="A5" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="257">
         <f>(Fonctionnalités!E38)</f>
         <v>0.83679999999999988</v>
       </c>
-      <c r="C5" s="259">
+      <c r="C5" s="258">
         <f>'Assurance Qualité'!D60</f>
         <v>0.69</v>
       </c>
-      <c r="D5" s="259">
+      <c r="D5" s="258">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
         <v>0.76339999999999986</v>
       </c>
-      <c r="F5" s="267">
+      <c r="F5" s="266">
         <v>25</v>
       </c>
-      <c r="G5" s="266">
+      <c r="G5" s="265">
         <f t="shared" ref="G5:G7" si="0">D5*F5</f>
         <v>19.084999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="261">
+      <c r="B6" s="260">
         <f>(Fonctionnalités!E59)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="262">
+        <v>0.86900000000000022</v>
+      </c>
+      <c r="C6" s="261">
         <f>'Assurance Qualité'!F60</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="262">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="261">
         <f>AVERAGE(B6:C6) - 0.1*E6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="267">
-        <v>30</v>
-      </c>
-      <c r="G6" s="266">
+        <v>0.80950000000000011</v>
+      </c>
+      <c r="F6" s="266">
+        <v>25</v>
+      </c>
+      <c r="G6" s="265">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.237500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="262" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="268"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="267">
+        <v>0.72</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="266">
+      <c r="G7" s="265">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -6699,51 +6810,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="12.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="1:13" ht="15">
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="326" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
+      <c r="B3" s="327"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
       <c r="A4" s="145"/>
@@ -6757,31 +6869,31 @@
       <c r="I4" s="146"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="326"/>
-      <c r="D5" s="327" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="327"/>
-      <c r="F5" s="328" t="s">
+      <c r="B5" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="334"/>
+      <c r="D5" s="335" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="335"/>
+      <c r="F5" s="336" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="329"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="317" t="s">
+      <c r="G5" s="337"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="329" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="318"/>
-      <c r="L5" s="318"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="325"/>
+      <c r="A6" s="333"/>
       <c r="B6" s="147" t="s">
         <v>48</v>
       </c>
@@ -6797,11 +6909,11 @@
       <c r="F6" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="152" t="s">
         <v>0</v>
       </c>
@@ -6814,20 +6926,20 @@
       <c r="M6" s="152"/>
     </row>
     <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="319" t="s">
+      <c r="A7" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="321"/>
-      <c r="C7" s="321"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="321"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
     </row>
     <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="192" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="153">
@@ -6842,16 +6954,21 @@
       <c r="E8" s="154">
         <v>3</v>
       </c>
-      <c r="F8" s="156"/>
+      <c r="F8" s="156">
+        <v>0.75</v>
+      </c>
       <c r="G8" s="154">
         <v>3</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="193" t="s">
-        <v>85</v>
+      <c r="A9" s="192" t="s">
+        <v>86</v>
       </c>
       <c r="B9" s="157">
         <v>1</v>
@@ -6865,16 +6982,18 @@
       <c r="E9" s="161">
         <v>2</v>
       </c>
-      <c r="F9" s="160"/>
+      <c r="F9" s="160">
+        <v>1</v>
+      </c>
       <c r="G9" s="161">
         <v>2</v>
       </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-    </row>
-    <row r="10" spans="1:13" ht="105">
-      <c r="A10" s="269" t="s">
-        <v>86</v>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+    </row>
+    <row r="10" spans="1:13" ht="180">
+      <c r="A10" s="268" t="s">
+        <v>87</v>
       </c>
       <c r="B10" s="157">
         <v>0</v>
@@ -6888,22 +7007,24 @@
       <c r="E10" s="161">
         <v>3</v>
       </c>
-      <c r="F10" s="160"/>
+      <c r="F10" s="160">
+        <v>1</v>
+      </c>
       <c r="G10" s="161">
         <v>3</v>
       </c>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="90">
-      <c r="A11" s="194" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="195">
+      <c r="A11" s="193" t="s">
+        <v>90</v>
       </c>
       <c r="B11" s="157">
         <v>0.5</v>
@@ -6917,22 +7038,27 @@
       <c r="E11" s="161">
         <v>2</v>
       </c>
-      <c r="F11" s="160"/>
+      <c r="F11" s="160">
+        <v>0.75</v>
+      </c>
       <c r="G11" s="161">
         <v>2</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="105">
-      <c r="A12" s="195" t="s">
         <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="180">
+      <c r="A12" s="194" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="157">
         <v>0.75</v>
@@ -6946,24 +7072,29 @@
       <c r="E12" s="161">
         <v>4</v>
       </c>
-      <c r="F12" s="160"/>
+      <c r="F12" s="160">
+        <v>0.75</v>
+      </c>
       <c r="G12" s="161">
         <v>4</v>
       </c>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="L12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="177">
+      <c r="A13" s="196" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="176">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
         <v>9</v>
       </c>
@@ -6971,7 +7102,7 @@
         <f>SUM(C8:C12)</f>
         <v>14</v>
       </c>
-      <c r="D13" s="178">
+      <c r="D13" s="177">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
         <v>9</v>
       </c>
@@ -6981,170 +7112,189 @@
       </c>
       <c r="F13" s="165">
         <f>SUMPRODUCT(F8:F12,G8:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="196">
+        <v>11.75</v>
+      </c>
+      <c r="G13" s="195">
         <f>SUM(G8:G12)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="319" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="320"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="321"/>
-      <c r="E14" s="321"/>
-      <c r="F14" s="321"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-    </row>
-    <row r="15" spans="1:13" ht="165">
-      <c r="A15" s="269" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="293">
+      <c r="A14" s="314" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="331"/>
+      <c r="C14" s="331"/>
+      <c r="D14" s="316"/>
+      <c r="E14" s="316"/>
+      <c r="F14" s="316"/>
+      <c r="G14" s="317"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+    </row>
+    <row r="15" spans="1:13" ht="360">
+      <c r="A15" s="268" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="292">
         <v>0.5</v>
       </c>
-      <c r="C15" s="294">
+      <c r="C15" s="293">
         <v>2</v>
       </c>
-      <c r="D15" s="297">
-        <v>0</v>
-      </c>
-      <c r="E15" s="294">
+      <c r="D15" s="296">
+        <v>0</v>
+      </c>
+      <c r="E15" s="293">
         <v>2</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="294">
+      <c r="F15" s="166">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="293">
         <v>2</v>
       </c>
-      <c r="H15" s="188"/>
-      <c r="I15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="186"/>
       <c r="J15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="285">
+      <c r="A16" s="268" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="294">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="283">
+        <v>3</v>
+      </c>
+      <c r="D16" s="269">
+        <v>1</v>
+      </c>
+      <c r="E16" s="283">
+        <v>3</v>
+      </c>
+      <c r="F16" s="270">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="283">
+        <v>3</v>
+      </c>
+      <c r="H16" s="187"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="302"/>
+      <c r="L16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45">
+      <c r="A17" s="276" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="282">
+        <v>1</v>
+      </c>
+      <c r="C17" s="283">
+        <v>3</v>
+      </c>
+      <c r="D17" s="272">
+        <v>1</v>
+      </c>
+      <c r="E17" s="283">
+        <v>3</v>
+      </c>
+      <c r="F17" s="169">
+        <v>1</v>
+      </c>
+      <c r="G17" s="283">
+        <v>3</v>
+      </c>
+      <c r="H17" s="187"/>
+      <c r="I17" s="186"/>
+    </row>
+    <row r="18" spans="1:12" ht="30">
+      <c r="A18" s="276" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="282">
+        <v>1</v>
+      </c>
+      <c r="C18" s="283">
+        <v>3</v>
+      </c>
+      <c r="D18" s="272">
+        <v>1</v>
+      </c>
+      <c r="E18" s="283">
+        <v>3</v>
+      </c>
+      <c r="F18" s="169">
+        <v>1</v>
+      </c>
+      <c r="G18" s="283">
+        <v>3</v>
+      </c>
+      <c r="H18" s="187"/>
+      <c r="I18" s="186"/>
+    </row>
+    <row r="19" spans="1:12" ht="120">
+      <c r="A19" s="277" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="295">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="283">
+        <v>2</v>
+      </c>
+      <c r="D19" s="297">
+        <v>1</v>
+      </c>
+      <c r="E19" s="283">
+        <v>2</v>
+      </c>
+      <c r="F19" s="169">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="283">
+        <v>2</v>
+      </c>
+      <c r="H19" s="187"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="287" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="135">
-      <c r="A16" s="269" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="295">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="284">
-        <v>3</v>
-      </c>
-      <c r="D16" s="270">
-        <v>1</v>
-      </c>
-      <c r="E16" s="284">
-        <v>3</v>
-      </c>
-      <c r="F16" s="271"/>
-      <c r="G16" s="284">
-        <v>3</v>
-      </c>
-      <c r="H16" s="188"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="303"/>
-    </row>
-    <row r="17" spans="1:11" ht="45">
-      <c r="A17" s="277" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="283">
-        <v>1</v>
-      </c>
-      <c r="C17" s="284">
-        <v>3</v>
-      </c>
-      <c r="D17" s="273">
-        <v>1</v>
-      </c>
-      <c r="E17" s="284">
-        <v>3</v>
-      </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="284">
-        <v>3</v>
-      </c>
-      <c r="H17" s="188"/>
-      <c r="I17" s="187"/>
-    </row>
-    <row r="18" spans="1:11" ht="30">
-      <c r="A18" s="277" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="283">
-        <v>1</v>
-      </c>
-      <c r="C18" s="284">
-        <v>3</v>
-      </c>
-      <c r="D18" s="273">
-        <v>1</v>
-      </c>
-      <c r="E18" s="284">
-        <v>3</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="284">
-        <v>3</v>
-      </c>
-      <c r="H18" s="188"/>
-      <c r="I18" s="187"/>
-    </row>
-    <row r="19" spans="1:11" ht="75">
-      <c r="A19" s="278" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="296">
-        <v>0.75</v>
-      </c>
-      <c r="C19" s="284">
-        <v>2</v>
-      </c>
-      <c r="D19" s="298">
-        <v>1</v>
-      </c>
-      <c r="E19" s="284">
-        <v>2</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="284">
-        <v>2</v>
-      </c>
-      <c r="H19" s="188"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="288" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="291">
+      <c r="B20" s="290">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
         <v>9.25</v>
       </c>
-      <c r="C20" s="287">
+      <c r="C20" s="286">
         <f>SUM(C15:C19)</f>
         <v>13</v>
       </c>
-      <c r="D20" s="292">
+      <c r="D20" s="291">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
         <v>11</v>
       </c>
@@ -7154,31 +7304,31 @@
       </c>
       <c r="F20" s="170">
         <f>SUMPRODUCT(F15:F19,G15:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="196">
+        <v>10.75</v>
+      </c>
+      <c r="G20" s="195">
         <f>SUM(G15:G19)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="188"/>
-      <c r="I20" s="187"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="319" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="323"/>
-      <c r="C21" s="323"/>
-      <c r="D21" s="321"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="321"/>
-      <c r="G21" s="322"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-    </row>
-    <row r="22" spans="1:11" ht="75">
-      <c r="A22" s="194" t="s">
-        <v>107</v>
+      <c r="H20" s="187"/>
+      <c r="I20" s="186"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="314" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="322"/>
+      <c r="C21" s="322"/>
+      <c r="D21" s="316"/>
+      <c r="E21" s="316"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+    </row>
+    <row r="22" spans="1:12" ht="105">
+      <c r="A22" s="193" t="s">
+        <v>113</v>
       </c>
       <c r="B22" s="157">
         <v>1</v>
@@ -7192,19 +7342,24 @@
       <c r="E22" s="158">
         <v>2</v>
       </c>
-      <c r="F22" s="160"/>
+      <c r="F22" s="160">
+        <v>0</v>
+      </c>
       <c r="G22" s="158">
         <v>2</v>
       </c>
-      <c r="H22" s="188"/>
-      <c r="I22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="186"/>
       <c r="K22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="195" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="194" t="s">
+        <v>116</v>
       </c>
       <c r="B23" s="157">
         <v>1</v>
@@ -7218,16 +7373,18 @@
       <c r="E23" s="161">
         <v>1</v>
       </c>
-      <c r="F23" s="160"/>
+      <c r="F23" s="160">
+        <v>1</v>
+      </c>
       <c r="G23" s="161">
         <v>1</v>
       </c>
-      <c r="H23" s="188"/>
-      <c r="I23" s="187"/>
-    </row>
-    <row r="24" spans="1:11" ht="75">
-      <c r="A24" s="195" t="s">
-        <v>110</v>
+      <c r="H23" s="187"/>
+      <c r="I23" s="186"/>
+    </row>
+    <row r="24" spans="1:12" ht="150">
+      <c r="A24" s="194" t="s">
+        <v>117</v>
       </c>
       <c r="B24" s="157">
         <v>1</v>
@@ -7241,21 +7398,26 @@
       <c r="E24" s="161">
         <v>1</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="160">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="161">
         <v>1</v>
       </c>
-      <c r="H24" s="188"/>
-      <c r="I24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="186"/>
       <c r="K24" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15">
-      <c r="A25" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="177">
+        <v>118</v>
+      </c>
+      <c r="L24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15">
+      <c r="A25" s="196" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="176">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
         <v>4</v>
       </c>
@@ -7263,7 +7425,7 @@
         <f>SUM(C22:C24)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="178">
+      <c r="D25" s="177">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
         <v>1.25</v>
       </c>
@@ -7273,145 +7435,162 @@
       </c>
       <c r="F25" s="165">
         <f>SUMPRODUCT(F22:F24,G22:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="196">
+        <v>1.75</v>
+      </c>
+      <c r="G25" s="195">
         <f>SUM(G22:G24)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="188"/>
-      <c r="I25" s="187"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="319" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="320"/>
-      <c r="C26" s="320"/>
-      <c r="D26" s="321"/>
-      <c r="E26" s="321"/>
-      <c r="F26" s="321"/>
-      <c r="G26" s="322"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-    </row>
-    <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="278" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="279">
-        <v>1</v>
-      </c>
-      <c r="C27" s="280">
+      <c r="H25" s="187"/>
+      <c r="I25" s="186"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="314" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="331"/>
+      <c r="C26" s="331"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+    </row>
+    <row r="27" spans="1:12" ht="60">
+      <c r="A27" s="277" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="278">
+        <v>1</v>
+      </c>
+      <c r="C27" s="279">
         <v>2</v>
       </c>
-      <c r="D27" s="273">
+      <c r="D27" s="272">
         <v>0.75</v>
       </c>
-      <c r="E27" s="280">
+      <c r="E27" s="279">
         <v>2</v>
       </c>
-      <c r="F27" s="171"/>
-      <c r="G27" s="280">
+      <c r="F27" s="171">
+        <v>0.75</v>
+      </c>
+      <c r="G27" s="279">
         <v>2</v>
       </c>
-      <c r="H27" s="188"/>
-      <c r="I27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="186"/>
       <c r="K27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45">
-      <c r="A28" s="278" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="283">
+        <v>122</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="45">
+      <c r="A28" s="277" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="282">
         <v>0.75</v>
       </c>
-      <c r="C28" s="285">
+      <c r="C28" s="284">
         <v>2</v>
       </c>
-      <c r="D28" s="273">
-        <v>1</v>
-      </c>
-      <c r="E28" s="285">
+      <c r="D28" s="272">
+        <v>1</v>
+      </c>
+      <c r="E28" s="284">
         <v>2</v>
       </c>
-      <c r="F28" s="171"/>
-      <c r="G28" s="285">
+      <c r="F28" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="284">
         <v>2</v>
       </c>
-      <c r="H28" s="188"/>
-      <c r="I28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="186"/>
       <c r="J28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="278" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="283">
-        <v>1</v>
-      </c>
-      <c r="C29" s="285">
+        <v>125</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30">
+      <c r="A29" s="277" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="282">
+        <v>1</v>
+      </c>
+      <c r="C29" s="284">
         <v>2</v>
       </c>
-      <c r="D29" s="273">
-        <v>1</v>
-      </c>
-      <c r="E29" s="285">
+      <c r="D29" s="272">
+        <v>1</v>
+      </c>
+      <c r="E29" s="284">
         <v>2</v>
       </c>
-      <c r="F29" s="171"/>
-      <c r="G29" s="285">
+      <c r="F29" s="171">
+        <v>1</v>
+      </c>
+      <c r="G29" s="284">
         <v>2</v>
       </c>
-      <c r="H29" s="188"/>
-      <c r="I29" s="187"/>
-    </row>
-    <row r="30" spans="1:11" ht="255">
-      <c r="A30" s="278" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="283">
-        <v>0</v>
-      </c>
-      <c r="C30" s="285">
+      <c r="H29" s="187"/>
+      <c r="I29" s="186"/>
+    </row>
+    <row r="30" spans="1:12" ht="409.6">
+      <c r="A30" s="277" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="282">
+        <v>0</v>
+      </c>
+      <c r="C30" s="284">
         <v>3</v>
       </c>
-      <c r="D30" s="273">
-        <v>0</v>
-      </c>
-      <c r="E30" s="285">
+      <c r="D30" s="272">
+        <v>0</v>
+      </c>
+      <c r="E30" s="284">
         <v>3</v>
       </c>
-      <c r="F30" s="171"/>
-      <c r="G30" s="285">
+      <c r="F30" s="171">
+        <v>0</v>
+      </c>
+      <c r="G30" s="284">
         <v>3</v>
       </c>
-      <c r="H30" s="188"/>
-      <c r="I30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="186"/>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15">
-      <c r="A31" s="288" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="291">
+        <v>130</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15">
+      <c r="A31" s="287" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="290">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
         <v>5.5</v>
       </c>
-      <c r="C31" s="287">
+      <c r="C31" s="286">
         <f>SUM(C27:C30)</f>
         <v>9</v>
       </c>
-      <c r="D31" s="292">
+      <c r="D31" s="291">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
         <v>5.5</v>
       </c>
@@ -7421,133 +7600,144 @@
       </c>
       <c r="F31" s="165">
         <f>SUMPRODUCT(F27:F30,G27:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="196">
+        <v>4.5</v>
+      </c>
+      <c r="G31" s="195">
         <f>SUM(G27:G30)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="188"/>
-      <c r="I31" s="187"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="319" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="330"/>
-      <c r="C32" s="330"/>
-      <c r="D32" s="321"/>
-      <c r="E32" s="321"/>
-      <c r="F32" s="321"/>
-      <c r="G32" s="322"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-    </row>
-    <row r="33" spans="1:11" ht="15">
-      <c r="A33" s="269" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="279">
-        <v>1</v>
-      </c>
-      <c r="C33" s="280">
-        <v>1</v>
-      </c>
-      <c r="D33" s="289">
-        <v>1</v>
-      </c>
-      <c r="E33" s="280">
-        <v>1</v>
-      </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="280">
-        <v>1</v>
-      </c>
-      <c r="H33" s="188"/>
-      <c r="I33" s="187"/>
-    </row>
-    <row r="34" spans="1:11" ht="15">
-      <c r="A34" s="269" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="281">
-        <v>1</v>
-      </c>
-      <c r="C34" s="282">
-        <v>1</v>
-      </c>
-      <c r="D34" s="275">
-        <v>1</v>
-      </c>
-      <c r="E34" s="282">
-        <v>1</v>
-      </c>
-      <c r="F34" s="276"/>
-      <c r="G34" s="282">
-        <v>1</v>
-      </c>
-      <c r="H34" s="188"/>
-      <c r="I34" s="187"/>
-    </row>
-    <row r="35" spans="1:11" ht="15">
-      <c r="A35" s="277" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="283">
-        <v>1</v>
-      </c>
-      <c r="C35" s="284">
+      <c r="H31" s="187"/>
+      <c r="I31" s="186"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="314" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="315"/>
+      <c r="C32" s="315"/>
+      <c r="D32" s="316"/>
+      <c r="E32" s="316"/>
+      <c r="F32" s="316"/>
+      <c r="G32" s="317"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+    </row>
+    <row r="33" spans="1:12" ht="15">
+      <c r="A33" s="268" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="278">
+        <v>1</v>
+      </c>
+      <c r="C33" s="279">
+        <v>1</v>
+      </c>
+      <c r="D33" s="288">
+        <v>1</v>
+      </c>
+      <c r="E33" s="279">
+        <v>1</v>
+      </c>
+      <c r="F33" s="174">
+        <v>1</v>
+      </c>
+      <c r="G33" s="279">
+        <v>1</v>
+      </c>
+      <c r="H33" s="187"/>
+      <c r="I33" s="186"/>
+    </row>
+    <row r="34" spans="1:12" ht="15">
+      <c r="A34" s="268" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="280">
+        <v>1</v>
+      </c>
+      <c r="C34" s="281">
+        <v>1</v>
+      </c>
+      <c r="D34" s="274">
+        <v>1</v>
+      </c>
+      <c r="E34" s="281">
+        <v>1</v>
+      </c>
+      <c r="F34" s="275">
+        <v>1</v>
+      </c>
+      <c r="G34" s="281">
+        <v>1</v>
+      </c>
+      <c r="H34" s="187"/>
+      <c r="I34" s="186"/>
+    </row>
+    <row r="35" spans="1:12" ht="15">
+      <c r="A35" s="276" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="282">
+        <v>1</v>
+      </c>
+      <c r="C35" s="283">
         <v>3</v>
       </c>
-      <c r="D35" s="273">
-        <v>1</v>
-      </c>
-      <c r="E35" s="284">
+      <c r="D35" s="272">
+        <v>1</v>
+      </c>
+      <c r="E35" s="283">
         <v>3</v>
       </c>
-      <c r="F35" s="171"/>
-      <c r="G35" s="284">
+      <c r="F35" s="171">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="283">
         <v>3</v>
       </c>
-      <c r="H35" s="188"/>
-      <c r="I35" s="187"/>
-    </row>
-    <row r="36" spans="1:11" ht="30">
-      <c r="A36" s="278" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="283">
-        <v>1</v>
-      </c>
-      <c r="C36" s="285">
+      <c r="H35" s="187"/>
+      <c r="I35" s="186"/>
+      <c r="L35" s="305" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30">
+      <c r="A36" s="277" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="282">
+        <v>1</v>
+      </c>
+      <c r="C36" s="284">
         <v>3</v>
       </c>
-      <c r="D36" s="273">
-        <v>1</v>
-      </c>
-      <c r="E36" s="285">
+      <c r="D36" s="272">
+        <v>1</v>
+      </c>
+      <c r="E36" s="284">
         <v>3</v>
       </c>
-      <c r="F36" s="171"/>
-      <c r="G36" s="285">
+      <c r="F36" s="171">
+        <v>1</v>
+      </c>
+      <c r="G36" s="284">
         <v>3</v>
       </c>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-    </row>
-    <row r="37" spans="1:11" ht="15">
-      <c r="A37" s="288" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="286">
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+    </row>
+    <row r="37" spans="1:12" ht="15">
+      <c r="A37" s="287" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="285">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="C37" s="287">
+      <c r="C37" s="286">
         <f>SUM(C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="D37" s="290">
+      <c r="D37" s="289">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
         <v>8</v>
       </c>
@@ -7557,323 +7747,354 @@
       </c>
       <c r="F37" s="165">
         <f>SUMPRODUCT(F33:F36,G33:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="196">
+        <v>7.25</v>
+      </c>
+      <c r="G37" s="195">
         <f>SUM(G33:G36)</f>
         <v>8</v>
       </c>
-      <c r="H37" s="188"/>
-      <c r="I37" s="187"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="319" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="330"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="322"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-    </row>
-    <row r="39" spans="1:11" ht="45">
-      <c r="A39" s="277" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="279">
-        <v>1</v>
-      </c>
-      <c r="C39" s="294">
-        <v>1</v>
-      </c>
-      <c r="D39" s="273">
-        <v>1</v>
-      </c>
-      <c r="E39" s="294">
-        <v>1</v>
-      </c>
-      <c r="F39" s="171"/>
-      <c r="G39" s="294">
-        <v>1</v>
-      </c>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-    </row>
-    <row r="40" spans="1:11" ht="15">
-      <c r="A40" s="277" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="283">
-        <v>1</v>
-      </c>
-      <c r="C40" s="284">
+      <c r="H37" s="187"/>
+      <c r="I37" s="186"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A38" s="314" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="315"/>
+      <c r="C38" s="315"/>
+      <c r="D38" s="316"/>
+      <c r="E38" s="316"/>
+      <c r="F38" s="316"/>
+      <c r="G38" s="317"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+    </row>
+    <row r="39" spans="1:12" ht="45">
+      <c r="A39" s="276" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="278">
+        <v>1</v>
+      </c>
+      <c r="C39" s="293">
+        <v>1</v>
+      </c>
+      <c r="D39" s="272">
+        <v>1</v>
+      </c>
+      <c r="E39" s="293">
+        <v>1</v>
+      </c>
+      <c r="F39" s="171">
+        <v>1</v>
+      </c>
+      <c r="G39" s="293">
+        <v>1</v>
+      </c>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+    </row>
+    <row r="40" spans="1:12" ht="15">
+      <c r="A40" s="276" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="282">
+        <v>1</v>
+      </c>
+      <c r="C40" s="283">
         <v>4</v>
       </c>
-      <c r="D40" s="273">
-        <v>1</v>
-      </c>
-      <c r="E40" s="284">
+      <c r="D40" s="272">
+        <v>1</v>
+      </c>
+      <c r="E40" s="283">
         <v>4</v>
       </c>
-      <c r="F40" s="171"/>
-      <c r="G40" s="284">
+      <c r="F40" s="171">
+        <v>1</v>
+      </c>
+      <c r="G40" s="283">
         <v>4</v>
       </c>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-    </row>
-    <row r="41" spans="1:11" ht="15">
-      <c r="A41" s="277" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="283">
-        <v>1</v>
-      </c>
-      <c r="C41" s="284">
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+    </row>
+    <row r="41" spans="1:12" ht="15">
+      <c r="A41" s="276" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="282">
+        <v>1</v>
+      </c>
+      <c r="C41" s="283">
         <v>3</v>
       </c>
-      <c r="D41" s="273">
-        <v>1</v>
-      </c>
-      <c r="E41" s="284">
+      <c r="D41" s="272">
+        <v>1</v>
+      </c>
+      <c r="E41" s="283">
         <v>3</v>
       </c>
-      <c r="F41" s="171"/>
-      <c r="G41" s="284">
+      <c r="F41" s="171">
+        <v>1</v>
+      </c>
+      <c r="G41" s="283">
         <v>3</v>
       </c>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-    </row>
-    <row r="42" spans="1:11" ht="90">
-      <c r="A42" s="277" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="283">
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+    </row>
+    <row r="42" spans="1:12" ht="240">
+      <c r="A42" s="276" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="282">
         <v>0.75</v>
       </c>
-      <c r="C42" s="284">
+      <c r="C42" s="283">
         <v>2</v>
       </c>
-      <c r="D42" s="273">
+      <c r="D42" s="272">
         <v>0.75</v>
       </c>
-      <c r="E42" s="284">
+      <c r="E42" s="283">
         <v>2</v>
       </c>
-      <c r="F42" s="171"/>
-      <c r="G42" s="284">
+      <c r="F42" s="171">
+        <v>1</v>
+      </c>
+      <c r="G42" s="283">
         <v>2</v>
       </c>
-      <c r="H42" s="187"/>
-      <c r="J42" s="301" t="s">
-        <v>131</v>
+      <c r="H42" s="186"/>
+      <c r="J42" s="300" t="s">
+        <v>143</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="375">
-      <c r="A43" s="277" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="283">
-        <v>0</v>
-      </c>
-      <c r="C43" s="284">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="409.6">
+      <c r="A43" s="276" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="282">
+        <v>0</v>
+      </c>
+      <c r="C43" s="283">
         <v>2</v>
       </c>
-      <c r="D43" s="273">
-        <v>0</v>
-      </c>
-      <c r="E43" s="284">
+      <c r="D43" s="272">
+        <v>0</v>
+      </c>
+      <c r="E43" s="283">
         <v>2</v>
       </c>
-      <c r="F43" s="171"/>
-      <c r="G43" s="284">
+      <c r="F43" s="171">
+        <v>1</v>
+      </c>
+      <c r="G43" s="283">
         <v>2</v>
       </c>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="301" t="s">
-        <v>134</v>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="300" t="s">
+        <v>146</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15">
-      <c r="A44" s="277" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="283">
-        <v>1</v>
-      </c>
-      <c r="C44" s="284">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15">
+      <c r="A44" s="276" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="282">
+        <v>1</v>
+      </c>
+      <c r="C44" s="283">
         <v>3</v>
       </c>
-      <c r="D44" s="273">
+      <c r="D44" s="272">
         <v>0.75</v>
       </c>
-      <c r="E44" s="284">
+      <c r="E44" s="283">
         <v>3</v>
       </c>
-      <c r="F44" s="171"/>
-      <c r="G44" s="284">
+      <c r="F44" s="171">
+        <v>1</v>
+      </c>
+      <c r="G44" s="283">
         <v>3</v>
       </c>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
       <c r="K44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30">
-      <c r="A45" s="277" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="283">
-        <v>1</v>
-      </c>
-      <c r="C45" s="284">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30">
+      <c r="A45" s="276" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="282">
+        <v>1</v>
+      </c>
+      <c r="C45" s="283">
         <v>3</v>
       </c>
-      <c r="D45" s="273">
-        <v>1</v>
-      </c>
-      <c r="E45" s="284">
+      <c r="D45" s="272">
+        <v>1</v>
+      </c>
+      <c r="E45" s="283">
         <v>3</v>
       </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="284">
+      <c r="F45" s="171">
+        <v>1</v>
+      </c>
+      <c r="G45" s="283">
         <v>3</v>
       </c>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-    </row>
-    <row r="46" spans="1:11" ht="90">
-      <c r="A46" s="277" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="283">
-        <v>1</v>
-      </c>
-      <c r="C46" s="284">
+      <c r="H45" s="186"/>
+      <c r="I45" s="186"/>
+    </row>
+    <row r="46" spans="1:12" ht="409.6">
+      <c r="A46" s="276" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="282">
+        <v>1</v>
+      </c>
+      <c r="C46" s="283">
         <v>4</v>
       </c>
-      <c r="D46" s="273">
+      <c r="D46" s="272">
         <v>0.25</v>
       </c>
-      <c r="E46" s="284">
+      <c r="E46" s="283">
         <v>4</v>
       </c>
-      <c r="F46" s="171"/>
-      <c r="G46" s="284">
+      <c r="F46" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="283">
         <v>4</v>
       </c>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="K46" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="105">
-      <c r="A47" s="278" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="283">
-        <v>1</v>
-      </c>
-      <c r="C47" s="285">
+        <v>152</v>
+      </c>
+      <c r="L46" s="305" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="409.6">
+      <c r="A47" s="277" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="282">
+        <v>1</v>
+      </c>
+      <c r="C47" s="284">
         <v>10</v>
       </c>
-      <c r="D47" s="273">
+      <c r="D47" s="272">
         <v>0.5</v>
       </c>
-      <c r="E47" s="285">
+      <c r="E47" s="284">
         <v>10</v>
       </c>
-      <c r="F47" s="171"/>
-      <c r="G47" s="285">
+      <c r="F47" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="284">
         <v>10</v>
       </c>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
       <c r="J47" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="360">
-      <c r="A48" s="278" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="283">
-        <v>0</v>
-      </c>
-      <c r="C48" s="285">
+        <v>156</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="409.6">
+      <c r="A48" s="277" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="282">
+        <v>0</v>
+      </c>
+      <c r="C48" s="284">
         <v>6</v>
       </c>
-      <c r="D48" s="273">
-        <v>0</v>
-      </c>
-      <c r="E48" s="285">
+      <c r="D48" s="272">
+        <v>0</v>
+      </c>
+      <c r="E48" s="284">
         <v>6</v>
       </c>
-      <c r="F48" s="171"/>
-      <c r="G48" s="285">
+      <c r="F48" s="171">
+        <v>0</v>
+      </c>
+      <c r="G48" s="284">
         <v>6</v>
       </c>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="301" t="s">
-        <v>145</v>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="300" t="s">
+        <v>159</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
+      </c>
+      <c r="L48" s="300" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15">
-      <c r="A49" s="278" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="283">
-        <v>1</v>
-      </c>
-      <c r="C49" s="285">
+      <c r="A49" s="277" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="282">
+        <v>1</v>
+      </c>
+      <c r="C49" s="284">
         <v>3</v>
       </c>
-      <c r="D49" s="273">
-        <v>1</v>
-      </c>
-      <c r="E49" s="285">
+      <c r="D49" s="272">
+        <v>1</v>
+      </c>
+      <c r="E49" s="284">
         <v>3</v>
       </c>
-      <c r="F49" s="171"/>
-      <c r="G49" s="285">
+      <c r="F49" s="171">
+        <v>1</v>
+      </c>
+      <c r="G49" s="284">
         <v>3</v>
       </c>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
     </row>
     <row r="50" spans="1:11" ht="15">
-      <c r="A50" s="288" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="286">
+      <c r="A50" s="287" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="285">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
         <v>32.5</v>
       </c>
-      <c r="C50" s="287">
+      <c r="C50" s="286">
         <f>SUM(C39:C49)</f>
         <v>41</v>
       </c>
-      <c r="D50" s="290">
+      <c r="D50" s="289">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
         <v>23.75</v>
       </c>
@@ -7883,31 +8104,31 @@
       </c>
       <c r="F50" s="165">
         <f>SUMPRODUCT(F39:F49,G39:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="196">
+        <v>28</v>
+      </c>
+      <c r="G50" s="195">
         <f>SUM(G39:G49)</f>
         <v>41</v>
       </c>
-      <c r="H50" s="188"/>
-      <c r="I50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="319" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="323"/>
-      <c r="C51" s="323"/>
-      <c r="D51" s="321"/>
-      <c r="E51" s="321"/>
-      <c r="F51" s="321"/>
-      <c r="G51" s="322"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
+      <c r="A51" s="314" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="322"/>
+      <c r="C51" s="322"/>
+      <c r="D51" s="316"/>
+      <c r="E51" s="316"/>
+      <c r="F51" s="316"/>
+      <c r="G51" s="317"/>
+      <c r="H51" s="185"/>
+      <c r="I51" s="185"/>
     </row>
     <row r="52" spans="1:11" ht="30">
-      <c r="A52" s="198" t="s">
-        <v>149</v>
+      <c r="A52" s="197" t="s">
+        <v>164</v>
       </c>
       <c r="B52" s="172">
         <v>1</v>
@@ -7921,16 +8142,18 @@
       <c r="E52" s="175">
         <v>2</v>
       </c>
-      <c r="F52" s="174"/>
+      <c r="F52" s="174">
+        <v>1</v>
+      </c>
       <c r="G52" s="175">
         <v>2</v>
       </c>
-      <c r="H52" s="188"/>
-      <c r="I52" s="187"/>
-    </row>
-    <row r="53" spans="1:11" ht="45">
-      <c r="A53" s="195" t="s">
-        <v>150</v>
+      <c r="H52" s="187"/>
+      <c r="I52" s="186"/>
+    </row>
+    <row r="53" spans="1:11" ht="75">
+      <c r="A53" s="194" t="s">
+        <v>165</v>
       </c>
       <c r="B53" s="167">
         <v>1</v>
@@ -7944,93 +8167,101 @@
       <c r="E53" s="161">
         <v>2</v>
       </c>
-      <c r="F53" s="171"/>
+      <c r="F53" s="171">
+        <v>1</v>
+      </c>
       <c r="G53" s="161">
         <v>2</v>
       </c>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
+      <c r="H53" s="186"/>
+      <c r="I53" s="186"/>
       <c r="K53" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15">
-      <c r="A54" s="195" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="272">
+      <c r="A54" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="271">
         <v>0</v>
       </c>
       <c r="C54" s="161">
         <v>1</v>
       </c>
-      <c r="D54" s="273">
+      <c r="D54" s="272">
         <v>1</v>
       </c>
       <c r="E54" s="161">
         <v>1</v>
       </c>
-      <c r="F54" s="274"/>
+      <c r="F54" s="273">
+        <v>1</v>
+      </c>
       <c r="G54" s="161">
         <v>1</v>
       </c>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
+      <c r="H54" s="186"/>
+      <c r="I54" s="186"/>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="120">
-      <c r="A55" s="195" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="272">
+      <c r="A55" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="271">
         <v>1</v>
       </c>
       <c r="C55" s="161">
         <v>4</v>
       </c>
-      <c r="D55" s="273">
+      <c r="D55" s="272">
         <v>1</v>
       </c>
       <c r="E55" s="161">
         <v>4</v>
       </c>
-      <c r="F55" s="274"/>
+      <c r="F55" s="273">
+        <v>1</v>
+      </c>
       <c r="G55" s="161">
         <v>4</v>
       </c>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
+      <c r="H55" s="186"/>
+      <c r="I55" s="186"/>
     </row>
     <row r="56" spans="1:11" ht="45">
-      <c r="A56" s="194" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="302">
+      <c r="A56" s="193" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="301">
         <v>1</v>
       </c>
       <c r="C56" s="158">
         <v>2</v>
       </c>
-      <c r="D56" s="305">
+      <c r="D56" s="303">
         <v>1</v>
       </c>
       <c r="E56" s="158">
         <v>2</v>
       </c>
-      <c r="F56" s="176"/>
+      <c r="F56" s="306">
+        <v>1</v>
+      </c>
       <c r="G56" s="158">
         <v>2</v>
       </c>
-      <c r="H56" s="189"/>
-      <c r="I56" s="187"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="186"/>
     </row>
     <row r="57" spans="1:11" ht="15">
-      <c r="A57" s="199" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="177">
+      <c r="A57" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="176">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
         <v>10</v>
       </c>
@@ -8038,7 +8269,7 @@
         <f>SUM(C52:C56)</f>
         <v>11</v>
       </c>
-      <c r="D57" s="178">
+      <c r="D57" s="177">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
         <v>10.5</v>
       </c>
@@ -8046,106 +8277,106 @@
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="179">
+      <c r="F57" s="178">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="200">
+        <v>11</v>
+      </c>
+      <c r="G57" s="199">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
+      <c r="H57" s="186"/>
+      <c r="I57" s="186"/>
     </row>
     <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="319" t="s">
+      <c r="A58" s="314" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="321"/>
-      <c r="C58" s="321"/>
-      <c r="D58" s="321"/>
-      <c r="E58" s="321"/>
-      <c r="F58" s="321"/>
-      <c r="G58" s="322"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="186"/>
+      <c r="B58" s="316"/>
+      <c r="C58" s="316"/>
+      <c r="D58" s="316"/>
+      <c r="E58" s="316"/>
+      <c r="F58" s="316"/>
+      <c r="G58" s="317"/>
+      <c r="H58" s="185"/>
+      <c r="I58" s="185"/>
     </row>
     <row r="59" spans="1:11" ht="15">
-      <c r="A59" s="201" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="180">
+      <c r="A59" s="200" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="179">
         <f>B13+B20+B25+B31+B37+B50+B57</f>
         <v>78.25</v>
       </c>
-      <c r="C59" s="181">
+      <c r="C59" s="180">
         <f>C13+C20+C25+C31+C37+C50+C57</f>
         <v>100</v>
       </c>
-      <c r="D59" s="182">
+      <c r="D59" s="181">
         <f>D13+D20+D25+D31+D37+D50+D57</f>
         <v>69</v>
       </c>
-      <c r="E59" s="183">
+      <c r="E59" s="182">
         <f>E13+E20+E25+E31+E37+E50+E57</f>
         <v>100</v>
       </c>
-      <c r="F59" s="184">
+      <c r="F59" s="183">
         <f>F13+F20+F25+F31+F37+F50+F57</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="202">
+        <v>75</v>
+      </c>
+      <c r="G59" s="201">
         <f>G13+G20+G25+G31+G37+G50+G57</f>
         <v>100</v>
       </c>
-      <c r="H59" s="189"/>
-      <c r="I59" s="187"/>
+      <c r="H59" s="188"/>
+      <c r="I59" s="186"/>
     </row>
     <row r="60" spans="1:11" ht="15">
-      <c r="A60" s="203" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="331">
+      <c r="A60" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="318">
         <f>B59/C59</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="C60" s="331"/>
-      <c r="D60" s="332">
+      <c r="C60" s="318"/>
+      <c r="D60" s="319">
         <f>D59/E59</f>
         <v>0.69</v>
       </c>
-      <c r="E60" s="332"/>
-      <c r="F60" s="333">
+      <c r="E60" s="319"/>
+      <c r="F60" s="320">
         <f>F59/G59</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="334"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="191"/>
+        <v>0.75</v>
+      </c>
+      <c r="G60" s="321"/>
+      <c r="H60" s="190"/>
+      <c r="I60" s="190"/>
     </row>
     <row r="61" spans="1:11" ht="15">
-      <c r="H61" s="190"/>
-      <c r="I61" s="190"/>
+      <c r="H61" s="189"/>
+      <c r="I61" s="189"/>
     </row>
     <row r="62" spans="1:11" ht="15">
-      <c r="H62" s="190"/>
-      <c r="I62" s="190"/>
+      <c r="H62" s="189"/>
+      <c r="I62" s="189"/>
     </row>
     <row r="63" spans="1:11" ht="15">
-      <c r="H63" s="190"/>
-      <c r="I63" s="190"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
     </row>
     <row r="64" spans="1:11" ht="15">
-      <c r="H64" s="190"/>
-      <c r="I64" s="190"/>
+      <c r="H64" s="189"/>
+      <c r="I64" s="189"/>
     </row>
     <row r="65" spans="8:9" ht="15">
-      <c r="H65" s="190"/>
-      <c r="I65" s="190"/>
+      <c r="H65" s="189"/>
+      <c r="I65" s="189"/>
     </row>
     <row r="66" spans="8:9" ht="15">
-      <c r="H66" s="190"/>
-      <c r="I66" s="190"/>
+      <c r="H66" s="189"/>
+      <c r="I66" s="189"/>
     </row>
     <row r="67" spans="8:9" ht="15"/>
     <row r="68" spans="8:9" ht="15"/>
@@ -8158,13 +8389,6 @@
     <row r="75" spans="8:9" ht="15"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="J5:L5"/>
@@ -8176,6 +8400,13 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A51:G51"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -8196,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A54262-C76A-40FE-9AF3-642EF9B2EA00}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8208,1034 +8439,1156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="346" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="346" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="345"/>
-      <c r="C5" s="345"/>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
+      <c r="A5" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="348"/>
+      <c r="C5" s="348"/>
+      <c r="D5" s="348"/>
+      <c r="E5" s="348"/>
+      <c r="F5" s="348"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="346" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="346"/>
-      <c r="D6" s="346"/>
-      <c r="E6" s="346"/>
-      <c r="F6" s="347"/>
+      <c r="B6" s="349" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="349"/>
+      <c r="D6" s="349"/>
+      <c r="E6" s="349"/>
+      <c r="F6" s="350"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="208" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="207" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="209" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="209" t="s">
+      <c r="C7" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="209" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="210" t="s">
+      <c r="E7" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="209" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="165">
-      <c r="A8" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="212">
+      <c r="A8" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="211">
         <v>0.9</v>
       </c>
-      <c r="C8" s="212">
-        <v>1</v>
-      </c>
-      <c r="D8" s="212">
+      <c r="C8" s="211">
+        <v>1</v>
+      </c>
+      <c r="D8" s="211">
         <v>14</v>
       </c>
-      <c r="E8" s="212">
+      <c r="E8" s="211">
         <f t="shared" ref="E8:E19" si="0">B8*C8*D8</f>
         <v>12.6</v>
       </c>
-      <c r="F8" s="300" t="s">
-        <v>163</v>
+      <c r="F8" s="299" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="211" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="212">
-        <v>1</v>
-      </c>
-      <c r="C9" s="212">
-        <v>1</v>
-      </c>
-      <c r="D9" s="212">
+      <c r="A9" s="210" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="211">
+        <v>1</v>
+      </c>
+      <c r="C9" s="211">
+        <v>1</v>
+      </c>
+      <c r="D9" s="211">
         <v>7</v>
       </c>
-      <c r="E9" s="212">
+      <c r="E9" s="211">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9" s="214"/>
+      <c r="F9" s="213"/>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="211" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="212">
-        <v>1</v>
-      </c>
-      <c r="C10" s="212">
+      <c r="A10" s="210" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="211">
+        <v>1</v>
+      </c>
+      <c r="C10" s="211">
         <v>0.5</v>
       </c>
-      <c r="D10" s="212">
+      <c r="D10" s="211">
         <v>12</v>
       </c>
-      <c r="E10" s="212">
+      <c r="E10" s="211">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="300" t="s">
-        <v>166</v>
+      <c r="F10" s="299" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105">
-      <c r="A11" s="211" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="299">
+      <c r="A11" s="210" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="298">
         <f>12/13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="C11" s="212">
+      <c r="C11" s="211">
         <v>0.75</v>
       </c>
-      <c r="D11" s="212">
+      <c r="D11" s="211">
         <v>10</v>
       </c>
-      <c r="E11" s="299">
+      <c r="E11" s="298">
         <f t="shared" si="0"/>
         <v>6.9230769230769234</v>
       </c>
-      <c r="F11" s="300" t="s">
-        <v>168</v>
+      <c r="F11" s="299" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75">
-      <c r="A12" s="211" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="212">
+      <c r="A12" s="210" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="211">
         <v>0.85</v>
       </c>
-      <c r="C12" s="212">
-        <v>1</v>
-      </c>
-      <c r="D12" s="212">
+      <c r="C12" s="211">
+        <v>1</v>
+      </c>
+      <c r="D12" s="211">
         <v>6</v>
       </c>
-      <c r="E12" s="212">
+      <c r="E12" s="211">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="F12" s="213" t="s">
-        <v>170</v>
+      <c r="F12" s="212" t="s">
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="211" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="212">
-        <v>1</v>
-      </c>
-      <c r="C13" s="212">
-        <v>1</v>
-      </c>
-      <c r="D13" s="212">
+      <c r="A13" s="210" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="211">
+        <v>1</v>
+      </c>
+      <c r="C13" s="211">
+        <v>1</v>
+      </c>
+      <c r="D13" s="211">
         <v>7</v>
       </c>
-      <c r="E13" s="212">
+      <c r="E13" s="211">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F13" s="213"/>
+      <c r="F13" s="212"/>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
-      <c r="A14" s="211" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="212">
-        <v>1</v>
-      </c>
-      <c r="C14" s="212">
+      <c r="A14" s="210" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="211">
+        <v>1</v>
+      </c>
+      <c r="C14" s="211">
         <v>0.75</v>
       </c>
-      <c r="D14" s="212">
+      <c r="D14" s="211">
         <v>8</v>
       </c>
-      <c r="E14" s="212">
+      <c r="E14" s="211">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F14" s="213" t="s">
-        <v>174</v>
+      <c r="F14" s="212" t="s">
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75">
-      <c r="A15" s="211" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="212">
+      <c r="A15" s="210" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="211">
         <v>0.95</v>
       </c>
-      <c r="C15" s="212">
-        <v>1</v>
-      </c>
-      <c r="D15" s="212">
+      <c r="C15" s="211">
+        <v>1</v>
+      </c>
+      <c r="D15" s="211">
         <v>8</v>
       </c>
-      <c r="E15" s="212">
+      <c r="E15" s="211">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F15" s="213" t="s">
-        <v>176</v>
+      <c r="F15" s="212" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60">
-      <c r="A16" s="211" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="212">
+      <c r="A16" s="210" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="211">
         <v>0.85</v>
       </c>
-      <c r="C16" s="212">
-        <v>1</v>
-      </c>
-      <c r="D16" s="212">
+      <c r="C16" s="211">
+        <v>1</v>
+      </c>
+      <c r="D16" s="211">
         <v>8</v>
       </c>
-      <c r="E16" s="212">
+      <c r="E16" s="211">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="F16" s="213" t="s">
-        <v>178</v>
+      <c r="F16" s="212" t="s">
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60">
-      <c r="A17" s="211" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="212">
+      <c r="A17" s="210" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="211">
         <v>0.9</v>
       </c>
-      <c r="C17" s="212">
+      <c r="C17" s="211">
         <v>0.75</v>
       </c>
-      <c r="D17" s="212">
+      <c r="D17" s="211">
         <v>7</v>
       </c>
-      <c r="E17" s="212">
+      <c r="E17" s="211">
         <f t="shared" si="0"/>
         <v>4.7250000000000005</v>
       </c>
-      <c r="F17" s="213" t="s">
-        <v>181</v>
+      <c r="F17" s="212" t="s">
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="165">
-      <c r="A18" s="211" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="212">
+      <c r="A18" s="210" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="211">
         <v>0.75</v>
       </c>
-      <c r="C18" s="212">
+      <c r="C18" s="211">
         <v>0.75</v>
       </c>
-      <c r="D18" s="212">
+      <c r="D18" s="211">
         <v>5</v>
       </c>
-      <c r="E18" s="212">
+      <c r="E18" s="211">
         <f t="shared" si="0"/>
         <v>2.8125</v>
       </c>
-      <c r="F18" s="213" t="s">
-        <v>183</v>
+      <c r="F18" s="212" t="s">
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60">
-      <c r="A19" s="211" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="212">
-        <v>1</v>
-      </c>
-      <c r="C19" s="212">
-        <v>1</v>
-      </c>
-      <c r="D19" s="212">
+      <c r="A19" s="210" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="211">
+        <v>1</v>
+      </c>
+      <c r="C19" s="211">
+        <v>1</v>
+      </c>
+      <c r="D19" s="211">
         <v>8</v>
       </c>
-      <c r="E19" s="212">
+      <c r="E19" s="211">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F19" s="213" t="s">
-        <v>185</v>
+      <c r="F19" s="212" t="s">
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="215" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="348"/>
-      <c r="C20" s="348"/>
-      <c r="D20" s="304">
+      <c r="A20" s="214" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="351"/>
+      <c r="C20" s="351"/>
+      <c r="D20" s="307">
         <f>SUM(D8:D19)</f>
         <v>100</v>
       </c>
-      <c r="E20" s="265">
+      <c r="E20" s="264">
         <f>SUM(E8:E19)/D20 - E22*D22 - E21*D21</f>
         <v>0.80560576923076921</v>
       </c>
-      <c r="F20" s="216"/>
+      <c r="F20" s="215"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="217" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="218">
+      <c r="A21" s="216" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="217">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="217" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="218">
+      <c r="A22" s="216" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="217">
         <v>0.2</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="349" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="350"/>
-      <c r="C23" s="350"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="351"/>
+      <c r="A23" s="352" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="353"/>
+      <c r="C23" s="353"/>
+      <c r="D23" s="353"/>
+      <c r="E23" s="353"/>
+      <c r="F23" s="354"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="227" t="s">
+      <c r="A24" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="335" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="336"/>
-      <c r="D24" s="336"/>
-      <c r="E24" s="336"/>
-      <c r="F24" s="337"/>
+      <c r="B24" s="338" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="339"/>
+      <c r="D24" s="339"/>
+      <c r="E24" s="339"/>
+      <c r="F24" s="340"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="227" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="219" t="s">
+      <c r="A25" s="226" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="218" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="219" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="219" t="s">
+      <c r="C25" s="218" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="219" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="228" t="s">
+      <c r="E25" s="218" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="227" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="105">
-      <c r="A26" s="227" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="240">
+      <c r="A26" s="226" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="239">
         <v>0.79</v>
       </c>
-      <c r="C26" s="240">
-        <v>1</v>
-      </c>
-      <c r="D26" s="219">
+      <c r="C26" s="239">
+        <v>1</v>
+      </c>
+      <c r="D26" s="218">
         <v>14</v>
       </c>
-      <c r="E26" s="219">
+      <c r="E26" s="218">
         <f>B26*C26*D26</f>
         <v>11.06</v>
       </c>
-      <c r="F26" s="228" t="s">
-        <v>192</v>
+      <c r="F26" s="227" t="s">
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="90">
-      <c r="A27" s="227" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="240">
+      <c r="A27" s="226" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="239">
         <v>0.88</v>
       </c>
-      <c r="C27" s="240">
-        <v>1</v>
-      </c>
-      <c r="D27" s="219">
+      <c r="C27" s="239">
+        <v>1</v>
+      </c>
+      <c r="D27" s="218">
         <v>15</v>
       </c>
-      <c r="E27" s="219">
+      <c r="E27" s="218">
         <f t="shared" ref="E27:E37" si="1">B27*C27*D27</f>
         <v>13.2</v>
       </c>
-      <c r="F27" s="228" t="s">
-        <v>195</v>
+      <c r="F27" s="227" t="s">
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="227" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="240">
+      <c r="A28" s="226" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="239">
         <v>0.95</v>
       </c>
-      <c r="C28" s="240">
-        <v>1</v>
-      </c>
-      <c r="D28" s="219">
+      <c r="C28" s="239">
+        <v>1</v>
+      </c>
+      <c r="D28" s="218">
         <v>5</v>
       </c>
-      <c r="E28" s="219">
+      <c r="E28" s="218">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F28" s="228" t="s">
-        <v>197</v>
+      <c r="F28" s="227" t="s">
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45">
-      <c r="A29" s="227" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="240">
+      <c r="A29" s="226" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="239">
         <v>0.75</v>
       </c>
-      <c r="C29" s="240">
-        <v>1</v>
-      </c>
-      <c r="D29" s="219">
+      <c r="C29" s="239">
+        <v>1</v>
+      </c>
+      <c r="D29" s="218">
         <v>6</v>
       </c>
-      <c r="E29" s="219">
+      <c r="E29" s="218">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F29" s="228" t="s">
-        <v>199</v>
+      <c r="F29" s="227" t="s">
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75">
-      <c r="A30" s="227" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="240">
+      <c r="A30" s="226" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="239">
         <v>0.87</v>
       </c>
-      <c r="C30" s="240">
-        <v>1</v>
-      </c>
-      <c r="D30" s="219">
+      <c r="C30" s="239">
+        <v>1</v>
+      </c>
+      <c r="D30" s="218">
         <v>6</v>
       </c>
-      <c r="E30" s="219">
+      <c r="E30" s="218">
         <f t="shared" si="1"/>
         <v>5.22</v>
       </c>
-      <c r="F30" s="228" t="s">
-        <v>202</v>
+      <c r="F30" s="227" t="s">
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60">
-      <c r="A31" s="227" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="240">
+      <c r="A31" s="226" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="239">
         <v>0.85</v>
       </c>
-      <c r="C31" s="240">
-        <v>1</v>
-      </c>
-      <c r="D31" s="219">
+      <c r="C31" s="239">
+        <v>1</v>
+      </c>
+      <c r="D31" s="218">
         <v>10</v>
       </c>
-      <c r="E31" s="219">
+      <c r="E31" s="218">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="F31" s="228" t="s">
-        <v>204</v>
+      <c r="F31" s="227" t="s">
+        <v>219</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="227" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="240">
-        <v>1</v>
-      </c>
-      <c r="C32" s="240">
-        <v>1</v>
-      </c>
-      <c r="D32" s="219">
+      <c r="A32" s="226" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="239">
+        <v>1</v>
+      </c>
+      <c r="C32" s="239">
+        <v>1</v>
+      </c>
+      <c r="D32" s="218">
         <v>6</v>
       </c>
-      <c r="E32" s="219">
+      <c r="E32" s="218">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F32" s="228"/>
+      <c r="F32" s="227"/>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="105">
-      <c r="A33" s="227" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="240">
+      <c r="A33" s="226" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="239">
         <v>0.7</v>
       </c>
-      <c r="C33" s="240">
-        <v>1</v>
-      </c>
-      <c r="D33" s="219">
+      <c r="C33" s="239">
+        <v>1</v>
+      </c>
+      <c r="D33" s="218">
         <v>6</v>
       </c>
-      <c r="E33" s="219">
+      <c r="E33" s="218">
         <f t="shared" si="1"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="F33" s="228" t="s">
-        <v>207</v>
+      <c r="F33" s="227" t="s">
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="90">
-      <c r="A34" s="227" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="240">
+      <c r="A34" s="226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="239">
         <v>0.9</v>
       </c>
-      <c r="C34" s="240">
-        <v>1</v>
-      </c>
-      <c r="D34" s="219">
+      <c r="C34" s="239">
+        <v>1</v>
+      </c>
+      <c r="D34" s="218">
         <v>8</v>
       </c>
-      <c r="E34" s="219">
+      <c r="E34" s="218">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="F34" s="228" t="s">
-        <v>209</v>
+      <c r="F34" s="227" t="s">
+        <v>224</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75">
-      <c r="A35" s="227" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="240">
+      <c r="A35" s="226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="239">
         <v>0.95</v>
       </c>
-      <c r="C35" s="240">
-        <v>1</v>
-      </c>
-      <c r="D35" s="219">
+      <c r="C35" s="239">
+        <v>1</v>
+      </c>
+      <c r="D35" s="218">
         <v>8</v>
       </c>
-      <c r="E35" s="219">
+      <c r="E35" s="218">
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
-      <c r="F35" s="228" t="s">
-        <v>211</v>
+      <c r="F35" s="227" t="s">
+        <v>226</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30">
-      <c r="A36" s="227" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="240">
+      <c r="A36" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="239">
         <v>0.9</v>
       </c>
-      <c r="C36" s="240">
+      <c r="C36" s="239">
         <v>0.75</v>
       </c>
-      <c r="D36" s="219">
+      <c r="D36" s="218">
         <v>14</v>
       </c>
-      <c r="E36" s="219">
+      <c r="E36" s="218">
         <f t="shared" si="1"/>
         <v>9.4500000000000011</v>
       </c>
-      <c r="F36" s="228" t="s">
-        <v>213</v>
+      <c r="F36" s="227" t="s">
+        <v>228</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="227" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="240">
-        <v>1</v>
-      </c>
-      <c r="C37" s="240">
-        <v>1</v>
-      </c>
-      <c r="D37" s="219">
+      <c r="A37" s="226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="239">
+        <v>1</v>
+      </c>
+      <c r="C37" s="239">
+        <v>1</v>
+      </c>
+      <c r="D37" s="218">
         <v>2</v>
       </c>
-      <c r="E37" s="219">
+      <c r="E37" s="218">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F37" s="228"/>
+      <c r="F37" s="227"/>
       <c r="G37" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="229" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="230"/>
-      <c r="C38" s="249"/>
-      <c r="D38" s="249">
+      <c r="A38" s="228" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="229"/>
+      <c r="C38" s="248"/>
+      <c r="D38" s="248">
         <f>SUM(D26:D37)</f>
         <v>100</v>
       </c>
-      <c r="E38" s="231">
+      <c r="E38" s="230">
         <f>SUM(E26:E37)/D38 -E39*D39 -E40*D40-E41*D41</f>
         <v>0.83679999999999988</v>
       </c>
-      <c r="F38" s="232"/>
+      <c r="F38" s="231"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="220" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="251"/>
-      <c r="D39" s="250">
+      <c r="A39" s="219" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="250"/>
+      <c r="D39" s="249">
         <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="220" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="221">
+      <c r="A40" s="219" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="220">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="220" t="s">
+      <c r="A41" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="221">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="23.25">
+      <c r="A42" s="341" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="342"/>
+      <c r="C42" s="342"/>
+      <c r="D42" s="342"/>
+      <c r="E42" s="342"/>
+      <c r="F42" s="343"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="232" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="344" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="344"/>
+      <c r="D43" s="344"/>
+      <c r="E43" s="344"/>
+      <c r="F43" s="345"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="233" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="222" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="222" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="222" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="222" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="234" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45">
+      <c r="A45" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="223">
+        <v>0.9</v>
+      </c>
+      <c r="C45" s="223">
+        <v>1</v>
+      </c>
+      <c r="D45" s="223">
+        <v>8</v>
+      </c>
+      <c r="E45" s="223">
+        <f t="shared" ref="E45:E57" si="2">B45*C45*D45</f>
+        <v>7.2</v>
+      </c>
+      <c r="F45" s="236" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="222">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="23.25">
-      <c r="A42" s="338" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="60">
+      <c r="A46" s="235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="223">
+        <v>0.9</v>
+      </c>
+      <c r="C46" s="223">
+        <v>1</v>
+      </c>
+      <c r="D46" s="223">
+        <v>6</v>
+      </c>
+      <c r="E46" s="223">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="F46" s="236" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="75">
+      <c r="A47" s="235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="223">
+        <v>0.85</v>
+      </c>
+      <c r="C47" s="223">
+        <v>1</v>
+      </c>
+      <c r="D47" s="223">
+        <v>6</v>
+      </c>
+      <c r="E47" s="223">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F47" s="236" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60">
+      <c r="A48" s="235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="223">
+        <v>0.85</v>
+      </c>
+      <c r="C48" s="223">
+        <v>1</v>
+      </c>
+      <c r="D48" s="223">
+        <v>6</v>
+      </c>
+      <c r="E48" s="223">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F48" s="236" t="s">
+        <v>239</v>
+      </c>
+      <c r="G48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60">
+      <c r="A49" s="235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" s="223">
+        <v>0.95</v>
+      </c>
+      <c r="C49" s="223">
+        <v>1</v>
+      </c>
+      <c r="D49" s="223">
+        <v>10</v>
+      </c>
+      <c r="E49" s="223">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="F49" s="236" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60">
+      <c r="A50" s="235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="223">
+        <v>0.92</v>
+      </c>
+      <c r="C50" s="223">
+        <v>1</v>
+      </c>
+      <c r="D50" s="223">
+        <v>10</v>
+      </c>
+      <c r="E50" s="223">
+        <f t="shared" si="2"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="F50" s="236" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="105">
+      <c r="A51" s="235" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="223">
+        <v>0.75</v>
+      </c>
+      <c r="C51" s="223">
+        <v>1</v>
+      </c>
+      <c r="D51" s="223">
+        <v>12</v>
+      </c>
+      <c r="E51" s="223">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F51" s="308" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="75">
+      <c r="A52" s="235" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="241">
+        <v>0.9</v>
+      </c>
+      <c r="C52" s="241">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="223">
+        <v>12</v>
+      </c>
+      <c r="E52" s="223">
+        <f t="shared" si="2"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="F52" s="236" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="243">
+        <v>0.95</v>
+      </c>
+      <c r="C53" s="243">
+        <v>1</v>
+      </c>
+      <c r="D53" s="240">
+        <v>6</v>
+      </c>
+      <c r="E53" s="223">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F53" s="242" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="243">
+        <v>1</v>
+      </c>
+      <c r="C54" s="243">
+        <v>1</v>
+      </c>
+      <c r="D54" s="240">
+        <v>5</v>
+      </c>
+      <c r="E54" s="223">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F54" s="242"/>
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="243">
+        <v>1</v>
+      </c>
+      <c r="C55" s="243">
+        <v>1</v>
+      </c>
+      <c r="D55" s="240">
+        <v>5</v>
+      </c>
+      <c r="E55" s="223">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F55" s="242"/>
+      <c r="G55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60">
+      <c r="A56" s="245" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" s="243">
+        <v>0.85</v>
+      </c>
+      <c r="C56" s="243">
+        <v>1</v>
+      </c>
+      <c r="D56" s="240">
+        <v>4</v>
+      </c>
+      <c r="E56" s="223">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
+      </c>
+      <c r="F56" s="304" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="245" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="243">
+        <v>0.9</v>
+      </c>
+      <c r="C57" s="243">
+        <v>1</v>
+      </c>
+      <c r="D57" s="240">
+        <v>8</v>
+      </c>
+      <c r="E57" s="223">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="F57" s="242" t="s">
+        <v>255</v>
+      </c>
+      <c r="G57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="245" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="243">
+        <v>1</v>
+      </c>
+      <c r="C58" s="243">
+        <v>1</v>
+      </c>
+      <c r="D58" s="240">
         <v>2</v>
       </c>
-      <c r="B42" s="339"/>
-      <c r="C42" s="339"/>
-      <c r="D42" s="339"/>
-      <c r="E42" s="339"/>
-      <c r="F42" s="340"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="233" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="341"/>
-      <c r="C43" s="341"/>
-      <c r="D43" s="341"/>
-      <c r="E43" s="341"/>
-      <c r="F43" s="342"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="234" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="223" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="223" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="223" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="223" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="235" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="236" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="224"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224">
-        <v>8</v>
-      </c>
-      <c r="E45" s="224">
-        <f t="shared" ref="E45:E57" si="2">B45*C45*D45</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="235"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="236" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="224"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="224">
-        <v>6</v>
-      </c>
-      <c r="E46" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="237"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="236" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="224"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224">
-        <v>6</v>
-      </c>
-      <c r="E47" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="235"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="236" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="224"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224">
-        <v>6</v>
-      </c>
-      <c r="E48" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="237"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="236" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="224"/>
-      <c r="C49" s="224"/>
-      <c r="D49" s="224">
-        <v>10</v>
-      </c>
-      <c r="E49" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="235"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="236" t="s">
-        <v>221</v>
-      </c>
-      <c r="B50" s="224"/>
-      <c r="C50" s="224"/>
-      <c r="D50" s="224">
-        <v>10</v>
-      </c>
-      <c r="E50" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="235"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="236" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="224"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="224">
-        <v>12</v>
-      </c>
-      <c r="E51" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="235"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="236" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="242"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="224">
-        <v>12</v>
-      </c>
-      <c r="E52" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="235"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="246" t="s">
-        <v>224</v>
-      </c>
-      <c r="B53" s="244"/>
-      <c r="C53" s="244"/>
-      <c r="D53" s="241">
-        <v>6</v>
-      </c>
-      <c r="E53" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="243"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="246" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="244"/>
-      <c r="C54" s="244"/>
-      <c r="D54" s="241">
-        <v>5</v>
-      </c>
-      <c r="E54" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="243"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="246" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" s="244"/>
-      <c r="C55" s="244"/>
-      <c r="D55" s="241">
-        <v>5</v>
-      </c>
-      <c r="E55" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="243"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="246" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="244"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="241">
-        <v>4</v>
-      </c>
-      <c r="E56" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="243"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="246" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" s="244"/>
-      <c r="C57" s="244"/>
-      <c r="D57" s="241">
-        <v>8</v>
-      </c>
-      <c r="E57" s="224">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="243"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="246" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="244"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="241">
+      <c r="E58" s="223">
+        <f t="shared" ref="E52:E58" si="3">B58*C58*D58</f>
         <v>2</v>
       </c>
-      <c r="E58" s="224">
-        <f t="shared" ref="E52:E58" si="3">B58*C58*D58</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="243"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="247" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="245"/>
-      <c r="C59" s="245"/>
-      <c r="D59" s="248">
+      <c r="F58" s="242"/>
+      <c r="G58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="246" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="244"/>
+      <c r="C59" s="244"/>
+      <c r="D59" s="247">
         <f>SUM(D45:D58)</f>
         <v>100</v>
       </c>
-      <c r="E59" s="238">
+      <c r="E59" s="237">
         <f>SUM(E45:E58)/D59 - D60*E60  - D61*E61 - D62*E62</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="239"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="225" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="221">
+        <v>0.86900000000000022</v>
+      </c>
+      <c r="F59" s="238"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="224" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="220">
         <v>0.15</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="225" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="221">
+    <row r="61" spans="1:7">
+      <c r="A61" s="224" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="220">
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="226" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="222">
+    <row r="62" spans="1:7">
+      <c r="A62" s="225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="221">
         <v>0.05</v>
       </c>
     </row>
@@ -9304,7 +9657,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9317,11 +9670,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="309"/>
+      <c r="G3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -9347,7 +9700,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -9360,7 +9713,7 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="65" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -9373,7 +9726,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -9386,7 +9739,7 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="65" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -9399,7 +9752,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -9412,7 +9765,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -9425,7 +9778,7 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="65" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -9438,7 +9791,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -9451,7 +9804,7 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="65" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -9464,7 +9817,7 @@
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="65" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -9477,7 +9830,7 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="65" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -9490,7 +9843,7 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="65" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -9503,7 +9856,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -9516,7 +9869,7 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="65" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -9529,7 +9882,7 @@
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="65" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -9542,7 +9895,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -9555,7 +9908,7 @@
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="65" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -9568,7 +9921,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -9581,7 +9934,7 @@
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="65" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -9594,7 +9947,7 @@
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="65" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -9607,7 +9960,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -9620,7 +9973,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -9717,10 +10070,10 @@
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
       <c r="F33" s="85"/>
-      <c r="H33" s="310" t="s">
+      <c r="H33" s="313" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="310"/>
+      <c r="I33" s="313"/>
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="52" t="s">
@@ -9970,7 +10323,7 @@
     <row r="49" spans="1:6" ht="15"/>
     <row r="50" spans="1:6" ht="15">
       <c r="A50" s="92" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="B50" s="139">
         <f>(B$31+B$47)/2</f>
@@ -10172,12 +10525,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10186,16 +10533,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
